--- a/covariencedataa.xlsx
+++ b/covariencedataa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kashikawanchoo/Downloads/Mini_Projects/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4C7C08-A66D-3349-B8CE-E01FCEAE8C72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4649192-CCAE-1840-8434-4A4F7D37FCD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A2:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AJ1"/>
@@ -496,3853 +496,3853 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>427.78662121409309</v>
-      </c>
-      <c r="C1">
-        <v>318.94939455403647</v>
-      </c>
-      <c r="D1">
-        <v>170.7576660544523</v>
-      </c>
-      <c r="E1">
-        <v>143.2006943617686</v>
-      </c>
-      <c r="F1">
-        <v>90.278596282661525</v>
-      </c>
-      <c r="G1">
-        <v>105.2526998893574</v>
-      </c>
-      <c r="H1">
-        <v>203.88932364204629</v>
-      </c>
-      <c r="I1">
-        <v>252.32055661927831</v>
-      </c>
-      <c r="J1">
-        <v>108.3013164067859</v>
-      </c>
-      <c r="K1">
-        <v>200.50313914820569</v>
-      </c>
-      <c r="L1">
-        <v>115.06862158885841</v>
-      </c>
-      <c r="M1">
-        <v>181.00745688442851</v>
-      </c>
-      <c r="N1">
-        <v>93.563217131766521</v>
-      </c>
-      <c r="O1">
-        <v>84.499208257831356</v>
-      </c>
-      <c r="P1">
-        <v>137.145561042411</v>
-      </c>
-      <c r="Q1">
-        <v>129.1355323033863</v>
-      </c>
-      <c r="R1">
-        <v>136.14701772793219</v>
-      </c>
-      <c r="S1">
-        <v>215.1152677616067</v>
-      </c>
-      <c r="T1">
-        <v>165.7685383979148</v>
-      </c>
-      <c r="U1">
-        <v>85.84730480690186</v>
-      </c>
-      <c r="V1">
-        <v>157.12167283294951</v>
-      </c>
-      <c r="W1">
-        <v>113.28014369578359</v>
-      </c>
-      <c r="X1">
-        <v>79.300422827573186</v>
-      </c>
-      <c r="Y1">
-        <v>86.975801667560305</v>
-      </c>
-      <c r="Z1">
-        <v>48.096235457124408</v>
-      </c>
-      <c r="AA1">
-        <v>87.351408239904288</v>
-      </c>
-      <c r="AB1">
-        <v>185.57127907696369</v>
-      </c>
-      <c r="AC1">
-        <v>110.45592297489389</v>
-      </c>
-      <c r="AD1">
-        <v>84.737451806767524</v>
-      </c>
-      <c r="AE1">
-        <v>142.93009779980099</v>
-      </c>
-      <c r="AF1">
-        <v>69.170003234738488</v>
-      </c>
-      <c r="AG1">
-        <v>82.358756277108995</v>
-      </c>
-      <c r="AH1">
-        <v>8.1649803695795402</v>
-      </c>
-      <c r="AI1">
-        <v>152.59305467898619</v>
-      </c>
-      <c r="AJ1">
-        <v>2.7626656999069068</v>
-      </c>
-    </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>427.78662121409309</v>
+      </c>
+      <c r="C2">
         <v>318.94939455403647</v>
       </c>
-      <c r="C2">
-        <v>1443.563590027431</v>
-      </c>
       <c r="D2">
-        <v>291.84536795348561</v>
+        <v>170.7576660544523</v>
       </c>
       <c r="E2">
-        <v>183.88366913702009</v>
+        <v>143.2006943617686</v>
       </c>
       <c r="F2">
-        <v>226.06250202967149</v>
+        <v>90.278596282661525</v>
       </c>
       <c r="G2">
-        <v>219.65137220382209</v>
+        <v>105.2526998893574</v>
       </c>
       <c r="H2">
-        <v>302.49611120399459</v>
+        <v>203.88932364204629</v>
       </c>
       <c r="I2">
-        <v>489.91490380122502</v>
+        <v>252.32055661927831</v>
       </c>
       <c r="J2">
-        <v>242.83825730736899</v>
+        <v>108.3013164067859</v>
       </c>
       <c r="K2">
-        <v>408.71278354973731</v>
+        <v>200.50313914820569</v>
       </c>
       <c r="L2">
-        <v>116.3113696581685</v>
+        <v>115.06862158885841</v>
       </c>
       <c r="M2">
-        <v>341.01969348749577</v>
+        <v>181.00745688442851</v>
       </c>
       <c r="N2">
-        <v>208.35227731785</v>
+        <v>93.563217131766521</v>
       </c>
       <c r="O2">
-        <v>201.0832886124773</v>
+        <v>84.499208257831356</v>
       </c>
       <c r="P2">
-        <v>370.59441619017622</v>
+        <v>137.145561042411</v>
       </c>
       <c r="Q2">
-        <v>375.3575740415057</v>
+        <v>129.1355323033863</v>
       </c>
       <c r="R2">
-        <v>310.0471024202572</v>
+        <v>136.14701772793219</v>
       </c>
       <c r="S2">
-        <v>506.37347394879288</v>
+        <v>215.1152677616067</v>
       </c>
       <c r="T2">
-        <v>404.50413447791942</v>
+        <v>165.7685383979148</v>
       </c>
       <c r="U2">
-        <v>55.358840210033243</v>
+        <v>85.84730480690186</v>
       </c>
       <c r="V2">
-        <v>386.03568116512042</v>
+        <v>157.12167283294951</v>
       </c>
       <c r="W2">
-        <v>241.1523086502246</v>
+        <v>113.28014369578359</v>
       </c>
       <c r="X2">
-        <v>97.810906395725738</v>
+        <v>79.300422827573186</v>
       </c>
       <c r="Y2">
-        <v>298.88843316559138</v>
+        <v>86.975801667560305</v>
       </c>
       <c r="Z2">
-        <v>71.804247203378083</v>
+        <v>48.096235457124408</v>
       </c>
       <c r="AA2">
-        <v>111.43945478450181</v>
+        <v>87.351408239904288</v>
       </c>
       <c r="AB2">
-        <v>343.1569415680126</v>
+        <v>185.57127907696369</v>
       </c>
       <c r="AC2">
-        <v>246.98858003890601</v>
+        <v>110.45592297489389</v>
       </c>
       <c r="AD2">
-        <v>205.89914899222649</v>
+        <v>84.737451806767524</v>
       </c>
       <c r="AE2">
-        <v>285.85212351796002</v>
+        <v>142.93009779980099</v>
       </c>
       <c r="AF2">
-        <v>258.39916315194557</v>
+        <v>69.170003234738488</v>
       </c>
       <c r="AG2">
-        <v>202.3113830633981</v>
+        <v>82.358756277108995</v>
       </c>
       <c r="AH2">
-        <v>13.97525920597864</v>
+        <v>8.1649803695795402</v>
       </c>
       <c r="AI2">
-        <v>341.61545538602428</v>
+        <v>152.59305467898619</v>
       </c>
       <c r="AJ2">
-        <v>1.4987422577254841</v>
+        <v>2.7626656999069068</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>170.7576660544523</v>
+        <v>318.94939455403647</v>
       </c>
       <c r="C3">
+        <v>1443.563590027431</v>
+      </c>
+      <c r="D3">
         <v>291.84536795348561</v>
       </c>
-      <c r="D3">
-        <v>620.01265265868074</v>
-      </c>
       <c r="E3">
-        <v>241.676672877958</v>
+        <v>183.88366913702009</v>
       </c>
       <c r="F3">
-        <v>162.42343337619269</v>
+        <v>226.06250202967149</v>
       </c>
       <c r="G3">
-        <v>220.32692598971809</v>
+        <v>219.65137220382209</v>
       </c>
       <c r="H3">
-        <v>269.84545721360848</v>
+        <v>302.49611120399459</v>
       </c>
       <c r="I3">
-        <v>243.93213914948919</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="J3">
-        <v>136.2350269999321</v>
+        <v>242.83825730736899</v>
       </c>
       <c r="K3">
-        <v>413.14476396087127</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="L3">
-        <v>185.84805232353949</v>
+        <v>116.3113696581685</v>
       </c>
       <c r="M3">
-        <v>193.39444093770129</v>
+        <v>341.01969348749577</v>
       </c>
       <c r="N3">
-        <v>113.0243988193413</v>
+        <v>208.35227731785</v>
       </c>
       <c r="O3">
-        <v>204.47790189544389</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="P3">
-        <v>268.48019254081157</v>
+        <v>370.59441619017622</v>
       </c>
       <c r="Q3">
-        <v>175.23729498843991</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="R3">
-        <v>285.78521619883679</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="S3">
-        <v>342.10203461542028</v>
+        <v>506.37347394879288</v>
       </c>
       <c r="T3">
-        <v>248.90380514951411</v>
+        <v>404.50413447791942</v>
       </c>
       <c r="U3">
-        <v>133.17960268602761</v>
+        <v>55.358840210033243</v>
       </c>
       <c r="V3">
-        <v>357.25892961301997</v>
+        <v>386.03568116512042</v>
       </c>
       <c r="W3">
-        <v>224.9970259841119</v>
+        <v>241.1523086502246</v>
       </c>
       <c r="X3">
-        <v>159.55153368583831</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="Y3">
-        <v>214.0498171033363</v>
+        <v>298.88843316559138</v>
       </c>
       <c r="Z3">
-        <v>119.42477322092429</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="AA3">
-        <v>129.82225030118099</v>
+        <v>111.43945478450181</v>
       </c>
       <c r="AB3">
-        <v>285.42221214451922</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="AC3">
-        <v>152.04070029398511</v>
+        <v>246.98858003890601</v>
       </c>
       <c r="AD3">
-        <v>202.5926190415627</v>
+        <v>205.89914899222649</v>
       </c>
       <c r="AE3">
-        <v>268.09914318451069</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="AF3">
-        <v>186.0212441841133</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="AG3">
-        <v>118.98359740768301</v>
+        <v>202.3113830633981</v>
       </c>
       <c r="AH3">
-        <v>70.11951733352862</v>
+        <v>13.97525920597864</v>
       </c>
       <c r="AI3">
-        <v>313.88674956103398</v>
+        <v>341.61545538602428</v>
       </c>
       <c r="AJ3">
-        <v>-2.7200732923054818</v>
+        <v>1.4987422577254841</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>143.2006943617686</v>
+        <v>170.7576660544523</v>
       </c>
       <c r="C4">
-        <v>183.88366913702009</v>
+        <v>291.84536795348561</v>
       </c>
       <c r="D4">
+        <v>620.01265265868074</v>
+      </c>
+      <c r="E4">
         <v>241.676672877958</v>
       </c>
-      <c r="E4">
-        <v>806.94443866724987</v>
-      </c>
       <c r="F4">
-        <v>136.93656667581581</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="G4">
-        <v>144.72546043700569</v>
+        <v>220.32692598971809</v>
       </c>
       <c r="H4">
-        <v>187.12175498444799</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="I4">
-        <v>192.30247603599511</v>
+        <v>243.93213914948919</v>
       </c>
       <c r="J4">
-        <v>127.07697778599</v>
+        <v>136.2350269999321</v>
       </c>
       <c r="K4">
-        <v>294.13396230963349</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="L4">
-        <v>140.33988801706431</v>
+        <v>185.84805232353949</v>
       </c>
       <c r="M4">
-        <v>175.55334084063421</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="N4">
-        <v>99.33937199209285</v>
+        <v>113.0243988193413</v>
       </c>
       <c r="O4">
-        <v>192.9276288874587</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="P4">
-        <v>209.03090280930761</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="Q4">
-        <v>112.4318814614366</v>
+        <v>175.23729498843991</v>
       </c>
       <c r="R4">
-        <v>222.4007556424431</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="S4">
-        <v>215.07527051520901</v>
+        <v>342.10203461542028</v>
       </c>
       <c r="T4">
-        <v>141.28425474020241</v>
+        <v>248.90380514951411</v>
       </c>
       <c r="U4">
-        <v>112.7187550265667</v>
+        <v>133.17960268602761</v>
       </c>
       <c r="V4">
-        <v>264.22172188476247</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="W4">
-        <v>186.96620920043361</v>
+        <v>224.9970259841119</v>
       </c>
       <c r="X4">
-        <v>211.15085757148941</v>
+        <v>159.55153368583831</v>
       </c>
       <c r="Y4">
-        <v>196.66877664256469</v>
+        <v>214.0498171033363</v>
       </c>
       <c r="Z4">
-        <v>164.18656556805499</v>
+        <v>119.42477322092429</v>
       </c>
       <c r="AA4">
-        <v>128.10973717340761</v>
+        <v>129.82225030118099</v>
       </c>
       <c r="AB4">
-        <v>195.6747892664018</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="AC4">
-        <v>141.8640674074573</v>
+        <v>152.04070029398511</v>
       </c>
       <c r="AD4">
-        <v>205.30238835256819</v>
+        <v>202.5926190415627</v>
       </c>
       <c r="AE4">
-        <v>170.8382740202679</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="AF4">
-        <v>151.90534258102849</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="AG4">
-        <v>92.444905272018673</v>
+        <v>118.98359740768301</v>
       </c>
       <c r="AH4">
-        <v>146.76727709554561</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="AI4">
-        <v>261.09958839741131</v>
+        <v>313.88674956103398</v>
       </c>
       <c r="AJ4">
-        <v>4.2523054508408107</v>
+        <v>-2.7200732923054818</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>90.278596282661525</v>
+        <v>143.2006943617686</v>
       </c>
       <c r="C5">
-        <v>226.06250202967149</v>
+        <v>183.88366913702009</v>
       </c>
       <c r="D5">
-        <v>162.42343337619269</v>
+        <v>241.676672877958</v>
       </c>
       <c r="E5">
+        <v>806.94443866724987</v>
+      </c>
+      <c r="F5">
         <v>136.93656667581581</v>
       </c>
-      <c r="F5">
-        <v>597.29555388039876</v>
-      </c>
       <c r="G5">
-        <v>109.0481374718679</v>
+        <v>144.72546043700569</v>
       </c>
       <c r="H5">
-        <v>149.688129414873</v>
+        <v>187.12175498444799</v>
       </c>
       <c r="I5">
-        <v>185.7869259482575</v>
+        <v>192.30247603599511</v>
       </c>
       <c r="J5">
-        <v>108.40826209825261</v>
+        <v>127.07697778599</v>
       </c>
       <c r="K5">
-        <v>233.04336655224691</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="L5">
-        <v>92.308924426872736</v>
+        <v>140.33988801706431</v>
       </c>
       <c r="M5">
-        <v>103.74347282853449</v>
+        <v>175.55334084063421</v>
       </c>
       <c r="N5">
-        <v>119.7568109745765</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="O5">
-        <v>119.84124204399539</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="P5">
-        <v>125.7962156209644</v>
+        <v>209.03090280930761</v>
       </c>
       <c r="Q5">
-        <v>155.88917819746459</v>
+        <v>112.4318814614366</v>
       </c>
       <c r="R5">
-        <v>149.27121235804</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="S5">
-        <v>167.02790109339631</v>
+        <v>215.07527051520901</v>
       </c>
       <c r="T5">
-        <v>199.79395929571649</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="U5">
-        <v>80.015176229995902</v>
+        <v>112.7187550265667</v>
       </c>
       <c r="V5">
-        <v>153.1198314716905</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="W5">
-        <v>174.60862003666779</v>
+        <v>186.96620920043361</v>
       </c>
       <c r="X5">
-        <v>183.1313549392394</v>
+        <v>211.15085757148941</v>
       </c>
       <c r="Y5">
-        <v>182.33471908763201</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="Z5">
-        <v>94.859690341622724</v>
+        <v>164.18656556805499</v>
       </c>
       <c r="AA5">
-        <v>53.675001320300026</v>
+        <v>128.10973717340761</v>
       </c>
       <c r="AB5">
-        <v>146.4568512018856</v>
+        <v>195.6747892664018</v>
       </c>
       <c r="AC5">
-        <v>285.43280900234117</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="AD5">
-        <v>127.6126015080085</v>
+        <v>205.30238835256819</v>
       </c>
       <c r="AE5">
-        <v>105.5091928983724</v>
+        <v>170.8382740202679</v>
       </c>
       <c r="AF5">
-        <v>108.5210544600543</v>
+        <v>151.90534258102849</v>
       </c>
       <c r="AG5">
-        <v>104.83719715083581</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="AH5">
-        <v>64.226422145388767</v>
+        <v>146.76727709554561</v>
       </c>
       <c r="AI5">
-        <v>205.85741985094151</v>
+        <v>261.09958839741131</v>
       </c>
       <c r="AJ5">
-        <v>5.1033740819395534</v>
+        <v>4.2523054508408107</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>105.2526998893574</v>
+        <v>90.278596282661525</v>
       </c>
       <c r="C6">
-        <v>219.65137220382209</v>
+        <v>226.06250202967149</v>
       </c>
       <c r="D6">
-        <v>220.32692598971809</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="E6">
-        <v>144.72546043700569</v>
+        <v>136.93656667581581</v>
       </c>
       <c r="F6">
+        <v>597.29555388039876</v>
+      </c>
+      <c r="G6">
         <v>109.0481374718679</v>
       </c>
-      <c r="G6">
-        <v>570.09201448107058</v>
-      </c>
       <c r="H6">
-        <v>125.5783809744526</v>
+        <v>149.688129414873</v>
       </c>
       <c r="I6">
-        <v>180.79963479062809</v>
+        <v>185.7869259482575</v>
       </c>
       <c r="J6">
-        <v>122.89404653724399</v>
+        <v>108.40826209825261</v>
       </c>
       <c r="K6">
-        <v>383.3199036749437</v>
+        <v>233.04336655224691</v>
       </c>
       <c r="L6">
-        <v>111.3875824222295</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="M6">
-        <v>138.3257082123846</v>
+        <v>103.74347282853449</v>
       </c>
       <c r="N6">
-        <v>68.06412250932965</v>
+        <v>119.7568109745765</v>
       </c>
       <c r="O6">
-        <v>127.23973828136521</v>
+        <v>119.84124204399539</v>
       </c>
       <c r="P6">
-        <v>251.54529919627569</v>
+        <v>125.7962156209644</v>
       </c>
       <c r="Q6">
-        <v>111.5525145962164</v>
+        <v>155.88917819746459</v>
       </c>
       <c r="R6">
-        <v>185.2232735355137</v>
+        <v>149.27121235804</v>
       </c>
       <c r="S6">
-        <v>216.4350158329045</v>
+        <v>167.02790109339631</v>
       </c>
       <c r="T6">
-        <v>187.62135599764139</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="U6">
-        <v>69.785371377166143</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="V6">
-        <v>374.47763327643872</v>
+        <v>153.1198314716905</v>
       </c>
       <c r="W6">
-        <v>124.0298596444291</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="X6">
-        <v>105.1590931470393</v>
+        <v>183.1313549392394</v>
       </c>
       <c r="Y6">
-        <v>138.16263922646189</v>
+        <v>182.33471908763201</v>
       </c>
       <c r="Z6">
-        <v>108.5314708868294</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="AA6">
-        <v>74.741122158063831</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="AB6">
-        <v>205.5297162505849</v>
+        <v>146.4568512018856</v>
       </c>
       <c r="AC6">
-        <v>101.26209180105241</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="AD6">
-        <v>138.0935857979257</v>
+        <v>127.6126015080085</v>
       </c>
       <c r="AE6">
-        <v>191.84772996684231</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="AF6">
-        <v>140.15735951127331</v>
+        <v>108.5210544600543</v>
       </c>
       <c r="AG6">
-        <v>79.377723381716109</v>
+        <v>104.83719715083581</v>
       </c>
       <c r="AH6">
-        <v>69.708961276440959</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="AI6">
-        <v>205.6479501989312</v>
+        <v>205.85741985094151</v>
       </c>
       <c r="AJ6">
-        <v>9.0714988551442541</v>
+        <v>5.1033740819395534</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>203.88932364204629</v>
+        <v>105.2526998893574</v>
       </c>
       <c r="C7">
-        <v>302.49611120399459</v>
+        <v>219.65137220382209</v>
       </c>
       <c r="D7">
-        <v>269.84545721360848</v>
+        <v>220.32692598971809</v>
       </c>
       <c r="E7">
-        <v>187.12175498444799</v>
+        <v>144.72546043700569</v>
       </c>
       <c r="F7">
-        <v>149.688129414873</v>
+        <v>109.0481374718679</v>
       </c>
       <c r="G7">
+        <v>570.09201448107058</v>
+      </c>
+      <c r="H7">
         <v>125.5783809744526</v>
       </c>
-      <c r="H7">
-        <v>781.0518995678417</v>
-      </c>
       <c r="I7">
-        <v>280.30504619215031</v>
+        <v>180.79963479062809</v>
       </c>
       <c r="J7">
-        <v>173.5097797242243</v>
+        <v>122.89404653724399</v>
       </c>
       <c r="K7">
-        <v>251.24721436420131</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="L7">
-        <v>180.62492182429739</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="M7">
-        <v>192.81629066413021</v>
+        <v>138.3257082123846</v>
       </c>
       <c r="N7">
-        <v>170.1545974011257</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="O7">
-        <v>136.6759842790226</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="P7">
-        <v>252.6496579583839</v>
+        <v>251.54529919627569</v>
       </c>
       <c r="Q7">
-        <v>142.9951166070837</v>
+        <v>111.5525145962164</v>
       </c>
       <c r="R7">
-        <v>144.67239228758771</v>
+        <v>185.2232735355137</v>
       </c>
       <c r="S7">
-        <v>230.25819308606739</v>
+        <v>216.4350158329045</v>
       </c>
       <c r="T7">
-        <v>127.6437307776575</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="U7">
-        <v>95.631152378042515</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="V7">
-        <v>197.90921028774491</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="W7">
-        <v>163.0985006254939</v>
+        <v>124.0298596444291</v>
       </c>
       <c r="X7">
-        <v>167.16529252466461</v>
+        <v>105.1590931470393</v>
       </c>
       <c r="Y7">
-        <v>138.12773798857691</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="Z7">
-        <v>91.403523725559012</v>
+        <v>108.5314708868294</v>
       </c>
       <c r="AA7">
-        <v>109.5170697172487</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="AB7">
-        <v>289.78306384273918</v>
+        <v>205.5297162505849</v>
       </c>
       <c r="AC7">
-        <v>150.40515920172959</v>
+        <v>101.26209180105241</v>
       </c>
       <c r="AD7">
-        <v>84.603949108836957</v>
+        <v>138.0935857979257</v>
       </c>
       <c r="AE7">
-        <v>234.16100471047409</v>
+        <v>191.84772996684231</v>
       </c>
       <c r="AF7">
-        <v>159.1455811408938</v>
+        <v>140.15735951127331</v>
       </c>
       <c r="AG7">
-        <v>151.1335907524626</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="AH7">
-        <v>55.780550667750738</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="AI7">
-        <v>208.8512227834446</v>
+        <v>205.6479501989312</v>
       </c>
       <c r="AJ7">
-        <v>-0.68389570994587867</v>
+        <v>9.0714988551442541</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>252.32055661927831</v>
+        <v>203.88932364204629</v>
       </c>
       <c r="C8">
-        <v>489.91490380122502</v>
+        <v>302.49611120399459</v>
       </c>
       <c r="D8">
-        <v>243.93213914948919</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="E8">
-        <v>192.30247603599511</v>
+        <v>187.12175498444799</v>
       </c>
       <c r="F8">
-        <v>185.7869259482575</v>
+        <v>149.688129414873</v>
       </c>
       <c r="G8">
-        <v>180.79963479062809</v>
+        <v>125.5783809744526</v>
       </c>
       <c r="H8">
+        <v>781.0518995678417</v>
+      </c>
+      <c r="I8">
         <v>280.30504619215031</v>
       </c>
-      <c r="I8">
-        <v>838.37351035793881</v>
-      </c>
       <c r="J8">
-        <v>220.1875354188692</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="K8">
-        <v>331.84029128463823</v>
+        <v>251.24721436420131</v>
       </c>
       <c r="L8">
-        <v>124.14118164992939</v>
+        <v>180.62492182429739</v>
       </c>
       <c r="M8">
-        <v>262.13667558192969</v>
+        <v>192.81629066413021</v>
       </c>
       <c r="N8">
-        <v>168.44448811912821</v>
+        <v>170.1545974011257</v>
       </c>
       <c r="O8">
-        <v>135.09745559205271</v>
+        <v>136.6759842790226</v>
       </c>
       <c r="P8">
-        <v>249.23855169302479</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="Q8">
-        <v>147.26273782696541</v>
+        <v>142.9951166070837</v>
       </c>
       <c r="R8">
-        <v>196.6373241903492</v>
+        <v>144.67239228758771</v>
       </c>
       <c r="S8">
-        <v>297.52217131521729</v>
+        <v>230.25819308606739</v>
       </c>
       <c r="T8">
-        <v>238.3637960786499</v>
+        <v>127.6437307776575</v>
       </c>
       <c r="U8">
-        <v>101.09869063829851</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="V8">
-        <v>280.94754563979768</v>
+        <v>197.90921028774491</v>
       </c>
       <c r="W8">
-        <v>207.55670991793721</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="X8">
-        <v>125.25502946381989</v>
+        <v>167.16529252466461</v>
       </c>
       <c r="Y8">
-        <v>156.85848823254079</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="Z8">
-        <v>88.365353761371409</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="AA8">
-        <v>80.08950551702371</v>
+        <v>109.5170697172487</v>
       </c>
       <c r="AB8">
-        <v>271.46820872045168</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="AC8">
-        <v>191.78676933604609</v>
+        <v>150.40515920172959</v>
       </c>
       <c r="AD8">
-        <v>169.6005056495419</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="AE8">
-        <v>200.7469200148355</v>
+        <v>234.16100471047409</v>
       </c>
       <c r="AF8">
-        <v>145.1282920566436</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="AG8">
-        <v>180.522480947487</v>
+        <v>151.1335907524626</v>
       </c>
       <c r="AH8">
-        <v>35.802153222879888</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="AI8">
-        <v>293.57924943581298</v>
+        <v>208.8512227834446</v>
       </c>
       <c r="AJ8">
-        <v>0.46221255354074797</v>
+        <v>-0.68389570994587867</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>108.3013164067859</v>
+        <v>252.32055661927831</v>
       </c>
       <c r="C9">
-        <v>242.83825730736899</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="D9">
-        <v>136.2350269999321</v>
+        <v>243.93213914948919</v>
       </c>
       <c r="E9">
-        <v>127.07697778599</v>
+        <v>192.30247603599511</v>
       </c>
       <c r="F9">
-        <v>108.40826209825261</v>
+        <v>185.7869259482575</v>
       </c>
       <c r="G9">
-        <v>122.89404653724399</v>
+        <v>180.79963479062809</v>
       </c>
       <c r="H9">
-        <v>173.5097797242243</v>
+        <v>280.30504619215031</v>
       </c>
       <c r="I9">
+        <v>838.37351035793881</v>
+      </c>
+      <c r="J9">
         <v>220.1875354188692</v>
       </c>
-      <c r="J9">
-        <v>427.5260294914907</v>
-      </c>
       <c r="K9">
-        <v>175.776840777648</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="L9">
-        <v>91.742790542443686</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="M9">
-        <v>134.59344549350871</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="N9">
-        <v>171.99425366262639</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="O9">
-        <v>84.46557649713256</v>
+        <v>135.09745559205271</v>
       </c>
       <c r="P9">
-        <v>149.4893129874275</v>
+        <v>249.23855169302479</v>
       </c>
       <c r="Q9">
-        <v>86.427360201401385</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="R9">
-        <v>119.1615855810459</v>
+        <v>196.6373241903492</v>
       </c>
       <c r="S9">
-        <v>144.63945202686401</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="T9">
-        <v>173.1597749477655</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="U9">
-        <v>85.209278775506945</v>
+        <v>101.09869063829851</v>
       </c>
       <c r="V9">
-        <v>150.8493055172637</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="W9">
-        <v>165.56283797010579</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="X9">
-        <v>80.640600918740205</v>
+        <v>125.25502946381989</v>
       </c>
       <c r="Y9">
-        <v>135.22580595984829</v>
+        <v>156.85848823254079</v>
       </c>
       <c r="Z9">
-        <v>108.4505362807795</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="AA9">
-        <v>26.369500186548059</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="AB9">
-        <v>178.1678290413758</v>
+        <v>271.46820872045168</v>
       </c>
       <c r="AC9">
-        <v>98.377737243468786</v>
+        <v>191.78676933604609</v>
       </c>
       <c r="AD9">
-        <v>67.293386455081745</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="AE9">
-        <v>110.64617933239821</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="AF9">
-        <v>133.48830432935381</v>
+        <v>145.1282920566436</v>
       </c>
       <c r="AG9">
-        <v>211.23140839310469</v>
+        <v>180.522480947487</v>
       </c>
       <c r="AH9">
-        <v>72.606150947101668</v>
+        <v>35.802153222879888</v>
       </c>
       <c r="AI9">
-        <v>148.09795549277291</v>
+        <v>293.57924943581298</v>
       </c>
       <c r="AJ9">
-        <v>6.5994493255562467</v>
+        <v>0.46221255354074797</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>200.50313914820569</v>
+        <v>108.3013164067859</v>
       </c>
       <c r="C10">
-        <v>408.71278354973731</v>
+        <v>242.83825730736899</v>
       </c>
       <c r="D10">
-        <v>413.14476396087127</v>
+        <v>136.2350269999321</v>
       </c>
       <c r="E10">
-        <v>294.13396230963349</v>
+        <v>127.07697778599</v>
       </c>
       <c r="F10">
-        <v>233.04336655224691</v>
+        <v>108.40826209825261</v>
       </c>
       <c r="G10">
-        <v>383.3199036749437</v>
+        <v>122.89404653724399</v>
       </c>
       <c r="H10">
-        <v>251.24721436420131</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="I10">
-        <v>331.84029128463823</v>
+        <v>220.1875354188692</v>
       </c>
       <c r="J10">
+        <v>427.5260294914907</v>
+      </c>
+      <c r="K10">
         <v>175.776840777648</v>
       </c>
-      <c r="K10">
-        <v>1358.787686183151</v>
-      </c>
       <c r="L10">
-        <v>195.3051796373278</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="M10">
-        <v>238.15967503158041</v>
+        <v>134.59344549350871</v>
       </c>
       <c r="N10">
-        <v>126.3031191245511</v>
+        <v>171.99425366262639</v>
       </c>
       <c r="O10">
-        <v>271.41290296929691</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="P10">
-        <v>372.50991851566602</v>
+        <v>149.4893129874275</v>
       </c>
       <c r="Q10">
-        <v>231.4843207103273</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="R10">
-        <v>354.00694907312243</v>
+        <v>119.1615855810459</v>
       </c>
       <c r="S10">
-        <v>488.72347404409368</v>
+        <v>144.63945202686401</v>
       </c>
       <c r="T10">
-        <v>382.65433855922231</v>
+        <v>173.1597749477655</v>
       </c>
       <c r="U10">
-        <v>167.53980080791089</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="V10">
-        <v>572.0380229936676</v>
+        <v>150.8493055172637</v>
       </c>
       <c r="W10">
-        <v>235.0059811950203</v>
+        <v>165.56283797010579</v>
       </c>
       <c r="X10">
-        <v>191.4845023698746</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="Y10">
-        <v>316.97459323691658</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="Z10">
-        <v>177.12909713551551</v>
+        <v>108.4505362807795</v>
       </c>
       <c r="AA10">
-        <v>122.9609355375586</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="AB10">
-        <v>396.35675306308639</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="AC10">
-        <v>249.19836635872809</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="AD10">
-        <v>301.48926285497038</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="AE10">
-        <v>323.53972515804298</v>
+        <v>110.64617933239821</v>
       </c>
       <c r="AF10">
-        <v>301.91221359934349</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="AG10">
-        <v>120.9052137266375</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="AH10">
-        <v>124.9461395613323</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="AI10">
-        <v>396.98320448909578</v>
+        <v>148.09795549277291</v>
       </c>
       <c r="AJ10">
-        <v>4.1210709777962196</v>
+        <v>6.5994493255562467</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>115.06862158885841</v>
+        <v>200.50313914820569</v>
       </c>
       <c r="C11">
-        <v>116.3113696581685</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="D11">
-        <v>185.84805232353949</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="E11">
-        <v>140.33988801706431</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="F11">
-        <v>92.308924426872736</v>
+        <v>233.04336655224691</v>
       </c>
       <c r="G11">
-        <v>111.3875824222295</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="H11">
-        <v>180.62492182429739</v>
+        <v>251.24721436420131</v>
       </c>
       <c r="I11">
-        <v>124.14118164992939</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="J11">
-        <v>91.742790542443686</v>
+        <v>175.776840777648</v>
       </c>
       <c r="K11">
+        <v>1358.787686183151</v>
+      </c>
+      <c r="L11">
         <v>195.3051796373278</v>
       </c>
-      <c r="L11">
-        <v>503.97717427459997</v>
-      </c>
       <c r="M11">
-        <v>108.44078065854271</v>
+        <v>238.15967503158041</v>
       </c>
       <c r="N11">
-        <v>100.6576755366502</v>
+        <v>126.3031191245511</v>
       </c>
       <c r="O11">
-        <v>57.945289154956072</v>
+        <v>271.41290296929691</v>
       </c>
       <c r="P11">
-        <v>127.1166764953738</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="Q11">
-        <v>72.437453574559527</v>
+        <v>231.4843207103273</v>
       </c>
       <c r="R11">
-        <v>84.302761996605113</v>
+        <v>354.00694907312243</v>
       </c>
       <c r="S11">
-        <v>104.8202810008821</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="T11">
-        <v>61.502970093786168</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="U11">
-        <v>128.57685413453819</v>
+        <v>167.53980080791089</v>
       </c>
       <c r="V11">
-        <v>200.74189320986179</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="W11">
-        <v>147.86773917655279</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="X11">
-        <v>158.65563973998479</v>
+        <v>191.4845023698746</v>
       </c>
       <c r="Y11">
-        <v>72.022935281638695</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="Z11">
-        <v>94.041414506079477</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="AA11">
-        <v>165.8252926250091</v>
+        <v>122.9609355375586</v>
       </c>
       <c r="AB11">
-        <v>120.6258300714441</v>
+        <v>396.35675306308639</v>
       </c>
       <c r="AC11">
-        <v>71.235072299085743</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="AD11">
-        <v>102.0943873197506</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="AE11">
-        <v>131.72799395978629</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="AF11">
-        <v>48.012541311291379</v>
+        <v>301.91221359934349</v>
       </c>
       <c r="AG11">
-        <v>86.499890084909353</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="AH11">
-        <v>71.835602510157244</v>
+        <v>124.9461395613323</v>
       </c>
       <c r="AI11">
-        <v>205.3746790452937</v>
+        <v>396.98320448909578</v>
       </c>
       <c r="AJ11">
-        <v>2.0945591127529251</v>
+        <v>4.1210709777962196</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>181.00745688442851</v>
+        <v>115.06862158885841</v>
       </c>
       <c r="C12">
-        <v>341.01969348749577</v>
+        <v>116.3113696581685</v>
       </c>
       <c r="D12">
-        <v>193.39444093770129</v>
+        <v>185.84805232353949</v>
       </c>
       <c r="E12">
-        <v>175.55334084063421</v>
+        <v>140.33988801706431</v>
       </c>
       <c r="F12">
-        <v>103.74347282853449</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="G12">
-        <v>138.3257082123846</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="H12">
-        <v>192.81629066413021</v>
+        <v>180.62492182429739</v>
       </c>
       <c r="I12">
-        <v>262.13667558192969</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="J12">
-        <v>134.59344549350871</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="K12">
-        <v>238.15967503158041</v>
+        <v>195.3051796373278</v>
       </c>
       <c r="L12">
+        <v>503.97717427459997</v>
+      </c>
+      <c r="M12">
         <v>108.44078065854271</v>
       </c>
-      <c r="M12">
-        <v>459.80909542628228</v>
-      </c>
       <c r="N12">
-        <v>118.6238895363259</v>
+        <v>100.6576755366502</v>
       </c>
       <c r="O12">
-        <v>135.10811775801389</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="P12">
-        <v>139.501244722682</v>
+        <v>127.1166764953738</v>
       </c>
       <c r="Q12">
-        <v>128.13600354240049</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="R12">
-        <v>167.12036312952469</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="S12">
-        <v>193.38890278254831</v>
+        <v>104.8202810008821</v>
       </c>
       <c r="T12">
-        <v>161.74073601764641</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="U12">
-        <v>71.215619934374232</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="V12">
-        <v>194.54109988576079</v>
+        <v>200.74189320986179</v>
       </c>
       <c r="W12">
-        <v>136.1683409981533</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="X12">
-        <v>106.828537318736</v>
+        <v>158.65563973998479</v>
       </c>
       <c r="Y12">
-        <v>147.0199314067371</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="Z12">
-        <v>41.506220177290963</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="AA12">
-        <v>75.401018589211333</v>
+        <v>165.8252926250091</v>
       </c>
       <c r="AB12">
-        <v>186.68811405136699</v>
+        <v>120.6258300714441</v>
       </c>
       <c r="AC12">
-        <v>117.8840942119075</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="AD12">
-        <v>118.9264670823674</v>
+        <v>102.0943873197506</v>
       </c>
       <c r="AE12">
-        <v>144.0909217684362</v>
+        <v>131.72799395978629</v>
       </c>
       <c r="AF12">
-        <v>168.39880012754691</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="AG12">
-        <v>121.616893836727</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="AH12">
-        <v>31.170007378826821</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="AI12">
-        <v>190.64121786924881</v>
+        <v>205.3746790452937</v>
       </c>
       <c r="AJ12">
-        <v>0.86120533912917052</v>
+        <v>2.0945591127529251</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93.563217131766521</v>
+        <v>181.00745688442851</v>
       </c>
       <c r="C13">
-        <v>208.35227731785</v>
+        <v>341.01969348749577</v>
       </c>
       <c r="D13">
-        <v>113.0243988193413</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="E13">
-        <v>99.33937199209285</v>
+        <v>175.55334084063421</v>
       </c>
       <c r="F13">
-        <v>119.7568109745765</v>
+        <v>103.74347282853449</v>
       </c>
       <c r="G13">
-        <v>68.06412250932965</v>
+        <v>138.3257082123846</v>
       </c>
       <c r="H13">
-        <v>170.1545974011257</v>
+        <v>192.81629066413021</v>
       </c>
       <c r="I13">
-        <v>168.44448811912821</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="J13">
-        <v>171.99425366262639</v>
+        <v>134.59344549350871</v>
       </c>
       <c r="K13">
-        <v>126.3031191245511</v>
+        <v>238.15967503158041</v>
       </c>
       <c r="L13">
-        <v>100.6576755366502</v>
+        <v>108.44078065854271</v>
       </c>
       <c r="M13">
+        <v>459.80909542628228</v>
+      </c>
+      <c r="N13">
         <v>118.6238895363259</v>
       </c>
-      <c r="N13">
-        <v>294.32254631190142</v>
-      </c>
       <c r="O13">
-        <v>63.741222126939007</v>
+        <v>135.10811775801389</v>
       </c>
       <c r="P13">
-        <v>121.7823432662002</v>
+        <v>139.501244722682</v>
       </c>
       <c r="Q13">
-        <v>103.4788580171187</v>
+        <v>128.13600354240049</v>
       </c>
       <c r="R13">
-        <v>67.399145730913588</v>
+        <v>167.12036312952469</v>
       </c>
       <c r="S13">
-        <v>114.5872165869351</v>
+        <v>193.38890278254831</v>
       </c>
       <c r="T13">
-        <v>140.5335929464041</v>
+        <v>161.74073601764641</v>
       </c>
       <c r="U13">
-        <v>62.512086287662463</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="V13">
-        <v>99.389567888432452</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="W13">
-        <v>106.0325810948078</v>
+        <v>136.1683409981533</v>
       </c>
       <c r="X13">
-        <v>85.223776598623346</v>
+        <v>106.828537318736</v>
       </c>
       <c r="Y13">
-        <v>103.70071992210779</v>
+        <v>147.0199314067371</v>
       </c>
       <c r="Z13">
-        <v>71.567080711629714</v>
+        <v>41.506220177290963</v>
       </c>
       <c r="AA13">
-        <v>59.172917352252909</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="AB13">
-        <v>109.6602227359546</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="AC13">
-        <v>115.8296363762781</v>
+        <v>117.8840942119075</v>
       </c>
       <c r="AD13">
-        <v>41.508475309720168</v>
+        <v>118.9264670823674</v>
       </c>
       <c r="AE13">
-        <v>87.907641664722789</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="AF13">
-        <v>81.086486769544706</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="AG13">
-        <v>151.11324751753361</v>
+        <v>121.616893836727</v>
       </c>
       <c r="AH13">
-        <v>39.212363566967007</v>
+        <v>31.170007378826821</v>
       </c>
       <c r="AI13">
-        <v>131.2320747092655</v>
+        <v>190.64121786924881</v>
       </c>
       <c r="AJ13">
-        <v>1.833680366059899</v>
+        <v>0.86120533912917052</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84.499208257831356</v>
+        <v>93.563217131766521</v>
       </c>
       <c r="C14">
-        <v>201.0832886124773</v>
+        <v>208.35227731785</v>
       </c>
       <c r="D14">
-        <v>204.47790189544389</v>
+        <v>113.0243988193413</v>
       </c>
       <c r="E14">
-        <v>192.9276288874587</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="F14">
-        <v>119.84124204399539</v>
+        <v>119.7568109745765</v>
       </c>
       <c r="G14">
-        <v>127.23973828136521</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="H14">
-        <v>136.6759842790226</v>
+        <v>170.1545974011257</v>
       </c>
       <c r="I14">
-        <v>135.09745559205271</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="J14">
-        <v>84.46557649713256</v>
+        <v>171.99425366262639</v>
       </c>
       <c r="K14">
-        <v>271.41290296929691</v>
+        <v>126.3031191245511</v>
       </c>
       <c r="L14">
-        <v>57.945289154956072</v>
+        <v>100.6576755366502</v>
       </c>
       <c r="M14">
-        <v>135.10811775801389</v>
+        <v>118.6238895363259</v>
       </c>
       <c r="N14">
+        <v>294.32254631190142</v>
+      </c>
+      <c r="O14">
         <v>63.741222126939007</v>
       </c>
-      <c r="O14">
-        <v>466.65689750258792</v>
-      </c>
       <c r="P14">
-        <v>193.6899184379902</v>
+        <v>121.7823432662002</v>
       </c>
       <c r="Q14">
-        <v>164.46631065710031</v>
+        <v>103.4788580171187</v>
       </c>
       <c r="R14">
-        <v>239.89849014505879</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="S14">
-        <v>290.798772494236</v>
+        <v>114.5872165869351</v>
       </c>
       <c r="T14">
-        <v>237.6422526106081</v>
+        <v>140.5335929464041</v>
       </c>
       <c r="U14">
-        <v>89.89307816297439</v>
+        <v>62.512086287662463</v>
       </c>
       <c r="V14">
-        <v>217.07156143559041</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="W14">
-        <v>135.3369703006687</v>
+        <v>106.0325810948078</v>
       </c>
       <c r="X14">
-        <v>87.116106911327421</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="Y14">
-        <v>273.46958385683422</v>
+        <v>103.70071992210779</v>
       </c>
       <c r="Z14">
-        <v>94.853642301371025</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="AA14">
-        <v>65.071783678878262</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="AB14">
-        <v>207.36809374720599</v>
+        <v>109.6602227359546</v>
       </c>
       <c r="AC14">
-        <v>110.8888340856145</v>
+        <v>115.8296363762781</v>
       </c>
       <c r="AD14">
-        <v>167.52545705243409</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="AE14">
-        <v>149.9402958236455</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="AF14">
-        <v>209.37039822178861</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="AG14">
-        <v>77.44398318164923</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="AH14">
-        <v>105.72820911861341</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="AI14">
-        <v>234.63224645485641</v>
+        <v>131.2320747092655</v>
       </c>
       <c r="AJ14">
-        <v>0.26742936917059529</v>
+        <v>1.833680366059899</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>137.145561042411</v>
+        <v>84.499208257831356</v>
       </c>
       <c r="C15">
-        <v>370.59441619017622</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="D15">
-        <v>268.48019254081157</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="E15">
-        <v>209.03090280930761</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="F15">
-        <v>125.7962156209644</v>
+        <v>119.84124204399539</v>
       </c>
       <c r="G15">
-        <v>251.54529919627569</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="H15">
-        <v>252.6496579583839</v>
+        <v>136.6759842790226</v>
       </c>
       <c r="I15">
-        <v>249.23855169302479</v>
+        <v>135.09745559205271</v>
       </c>
       <c r="J15">
-        <v>149.4893129874275</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="K15">
-        <v>372.50991851566602</v>
+        <v>271.41290296929691</v>
       </c>
       <c r="L15">
-        <v>127.1166764953738</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="M15">
-        <v>139.501244722682</v>
+        <v>135.10811775801389</v>
       </c>
       <c r="N15">
-        <v>121.7823432662002</v>
+        <v>63.741222126939007</v>
       </c>
       <c r="O15">
+        <v>466.65689750258792</v>
+      </c>
+      <c r="P15">
         <v>193.6899184379902</v>
       </c>
-      <c r="P15">
-        <v>1086.8773107326449</v>
-      </c>
       <c r="Q15">
-        <v>245.6704146611259</v>
+        <v>164.46631065710031</v>
       </c>
       <c r="R15">
-        <v>251.00856971975071</v>
+        <v>239.89849014505879</v>
       </c>
       <c r="S15">
-        <v>429.37894065076449</v>
+        <v>290.798772494236</v>
       </c>
       <c r="T15">
-        <v>239.5144709788452</v>
+        <v>237.6422526106081</v>
       </c>
       <c r="U15">
-        <v>92.04110921170934</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="V15">
-        <v>392.28232371086062</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="W15">
-        <v>191.24409203313041</v>
+        <v>135.3369703006687</v>
       </c>
       <c r="X15">
-        <v>131.27163202690591</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="Y15">
-        <v>259.48638099811751</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="Z15">
-        <v>146.37163608302399</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="AA15">
-        <v>98.06780864946208</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="AB15">
-        <v>272.23324186599967</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="AC15">
-        <v>125.6635017010591</v>
+        <v>110.8888340856145</v>
       </c>
       <c r="AD15">
-        <v>165.16239197600541</v>
+        <v>167.52545705243409</v>
       </c>
       <c r="AE15">
-        <v>308.33902222680803</v>
+        <v>149.9402958236455</v>
       </c>
       <c r="AF15">
-        <v>221.2937017173185</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="AG15">
-        <v>131.72185730605401</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="AH15">
-        <v>115.7227847808948</v>
+        <v>105.72820911861341</v>
       </c>
       <c r="AI15">
-        <v>261.66767661709122</v>
+        <v>234.63224645485641</v>
       </c>
       <c r="AJ15">
-        <v>5.5938319634512306</v>
+        <v>0.26742936917059529</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>129.1355323033863</v>
+        <v>137.145561042411</v>
       </c>
       <c r="C16">
-        <v>375.3575740415057</v>
+        <v>370.59441619017622</v>
       </c>
       <c r="D16">
-        <v>175.23729498843991</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="E16">
-        <v>112.4318814614366</v>
+        <v>209.03090280930761</v>
       </c>
       <c r="F16">
-        <v>155.88917819746459</v>
+        <v>125.7962156209644</v>
       </c>
       <c r="G16">
-        <v>111.5525145962164</v>
+        <v>251.54529919627569</v>
       </c>
       <c r="H16">
-        <v>142.9951166070837</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="I16">
-        <v>147.26273782696541</v>
+        <v>249.23855169302479</v>
       </c>
       <c r="J16">
-        <v>86.427360201401385</v>
+        <v>149.4893129874275</v>
       </c>
       <c r="K16">
-        <v>231.4843207103273</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="L16">
-        <v>72.437453574559527</v>
+        <v>127.1166764953738</v>
       </c>
       <c r="M16">
-        <v>128.13600354240049</v>
+        <v>139.501244722682</v>
       </c>
       <c r="N16">
-        <v>103.4788580171187</v>
+        <v>121.7823432662002</v>
       </c>
       <c r="O16">
-        <v>164.46631065710031</v>
+        <v>193.6899184379902</v>
       </c>
       <c r="P16">
+        <v>1086.8773107326449</v>
+      </c>
+      <c r="Q16">
         <v>245.6704146611259</v>
       </c>
-      <c r="Q16">
-        <v>978.61309168424441</v>
-      </c>
       <c r="R16">
-        <v>252.52021059264899</v>
+        <v>251.00856971975071</v>
       </c>
       <c r="S16">
-        <v>535.62283932289301</v>
+        <v>429.37894065076449</v>
       </c>
       <c r="T16">
-        <v>375.2416364702961</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="U16">
-        <v>19.947362356354741</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="V16">
-        <v>253.47970241250789</v>
+        <v>392.28232371086062</v>
       </c>
       <c r="W16">
-        <v>125.0392993691927</v>
+        <v>191.24409203313041</v>
       </c>
       <c r="X16">
-        <v>51.316562143824932</v>
+        <v>131.27163202690591</v>
       </c>
       <c r="Y16">
-        <v>357.56488183561288</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Z16">
-        <v>67.849797906623991</v>
+        <v>146.37163608302399</v>
       </c>
       <c r="AA16">
-        <v>53.578182415381313</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="AB16">
-        <v>212.6840408516733</v>
+        <v>272.23324186599967</v>
       </c>
       <c r="AC16">
-        <v>154.6781795463676</v>
+        <v>125.6635017010591</v>
       </c>
       <c r="AD16">
-        <v>95.545536267340097</v>
+        <v>165.16239197600541</v>
       </c>
       <c r="AE16">
-        <v>256.28578800037292</v>
+        <v>308.33902222680803</v>
       </c>
       <c r="AF16">
-        <v>235.47108672824291</v>
+        <v>221.2937017173185</v>
       </c>
       <c r="AG16">
-        <v>115.1575858118613</v>
+        <v>131.72185730605401</v>
       </c>
       <c r="AH16">
-        <v>20.015755498576201</v>
+        <v>115.7227847808948</v>
       </c>
       <c r="AI16">
-        <v>220.94513750645311</v>
+        <v>261.66767661709122</v>
       </c>
       <c r="AJ16">
-        <v>2.5260578366523889</v>
+        <v>5.5938319634512306</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>136.14701772793219</v>
+        <v>129.1355323033863</v>
       </c>
       <c r="C17">
-        <v>310.0471024202572</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="D17">
-        <v>285.78521619883679</v>
+        <v>175.23729498843991</v>
       </c>
       <c r="E17">
-        <v>222.4007556424431</v>
+        <v>112.4318814614366</v>
       </c>
       <c r="F17">
-        <v>149.27121235804</v>
+        <v>155.88917819746459</v>
       </c>
       <c r="G17">
-        <v>185.2232735355137</v>
+        <v>111.5525145962164</v>
       </c>
       <c r="H17">
-        <v>144.67239228758771</v>
+        <v>142.9951166070837</v>
       </c>
       <c r="I17">
-        <v>196.6373241903492</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="J17">
-        <v>119.1615855810459</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="K17">
-        <v>354.00694907312243</v>
+        <v>231.4843207103273</v>
       </c>
       <c r="L17">
-        <v>84.302761996605113</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="M17">
-        <v>167.12036312952469</v>
+        <v>128.13600354240049</v>
       </c>
       <c r="N17">
-        <v>67.399145730913588</v>
+        <v>103.4788580171187</v>
       </c>
       <c r="O17">
-        <v>239.89849014505879</v>
+        <v>164.46631065710031</v>
       </c>
       <c r="P17">
-        <v>251.00856971975071</v>
+        <v>245.6704146611259</v>
       </c>
       <c r="Q17">
+        <v>978.61309168424441</v>
+      </c>
+      <c r="R17">
         <v>252.52021059264899</v>
       </c>
-      <c r="R17">
-        <v>910.13109087652469</v>
-      </c>
       <c r="S17">
-        <v>341.09453450445488</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="T17">
-        <v>295.93421881220462</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="U17">
-        <v>57.247904196337423</v>
+        <v>19.947362356354741</v>
       </c>
       <c r="V17">
-        <v>338.66684620604821</v>
+        <v>253.47970241250789</v>
       </c>
       <c r="W17">
-        <v>229.17211813202661</v>
+        <v>125.0392993691927</v>
       </c>
       <c r="X17">
-        <v>35.582608421144123</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="Y17">
-        <v>303.25524381254519</v>
+        <v>357.56488183561288</v>
       </c>
       <c r="Z17">
-        <v>97.486373264302628</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="AA17">
-        <v>67.437693902691919</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="AB17">
-        <v>263.66207538828661</v>
+        <v>212.6840408516733</v>
       </c>
       <c r="AC17">
-        <v>133.82299263943051</v>
+        <v>154.6781795463676</v>
       </c>
       <c r="AD17">
-        <v>306.05824352191001</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="AE17">
-        <v>203.54624800442821</v>
+        <v>256.28578800037292</v>
       </c>
       <c r="AF17">
-        <v>268.4656919372826</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="AG17">
-        <v>112.2458406472139</v>
+        <v>115.1575858118613</v>
       </c>
       <c r="AH17">
-        <v>107.4569121428264</v>
+        <v>20.015755498576201</v>
       </c>
       <c r="AI17">
-        <v>293.99535247559879</v>
+        <v>220.94513750645311</v>
       </c>
       <c r="AJ17">
-        <v>6.2779338804389804</v>
+        <v>2.5260578366523889</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>215.1152677616067</v>
+        <v>136.14701772793219</v>
       </c>
       <c r="C18">
-        <v>506.37347394879288</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="D18">
-        <v>342.10203461542028</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="E18">
-        <v>215.07527051520901</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="F18">
-        <v>167.02790109339631</v>
+        <v>149.27121235804</v>
       </c>
       <c r="G18">
-        <v>216.4350158329045</v>
+        <v>185.2232735355137</v>
       </c>
       <c r="H18">
-        <v>230.25819308606739</v>
+        <v>144.67239228758771</v>
       </c>
       <c r="I18">
-        <v>297.52217131521729</v>
+        <v>196.6373241903492</v>
       </c>
       <c r="J18">
-        <v>144.63945202686401</v>
+        <v>119.1615855810459</v>
       </c>
       <c r="K18">
-        <v>488.72347404409368</v>
+        <v>354.00694907312243</v>
       </c>
       <c r="L18">
-        <v>104.8202810008821</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="M18">
-        <v>193.38890278254831</v>
+        <v>167.12036312952469</v>
       </c>
       <c r="N18">
-        <v>114.5872165869351</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="O18">
-        <v>290.798772494236</v>
+        <v>239.89849014505879</v>
       </c>
       <c r="P18">
-        <v>429.37894065076449</v>
+        <v>251.00856971975071</v>
       </c>
       <c r="Q18">
-        <v>535.62283932289301</v>
+        <v>252.52021059264899</v>
       </c>
       <c r="R18">
+        <v>910.13109087652469</v>
+      </c>
+      <c r="S18">
         <v>341.09453450445488</v>
       </c>
-      <c r="S18">
-        <v>1783.336944171398</v>
-      </c>
       <c r="T18">
-        <v>550.79191919530172</v>
+        <v>295.93421881220462</v>
       </c>
       <c r="U18">
-        <v>126.7550767456796</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="V18">
-        <v>458.90299983472732</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="W18">
-        <v>211.99582921518669</v>
+        <v>229.17211813202661</v>
       </c>
       <c r="X18">
-        <v>148.1902888848775</v>
+        <v>35.582608421144123</v>
       </c>
       <c r="Y18">
-        <v>553.34048404281725</v>
+        <v>303.25524381254519</v>
       </c>
       <c r="Z18">
-        <v>195.2951539492108</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="AA18">
-        <v>40.581894946375208</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="AB18">
-        <v>314.74757018371292</v>
+        <v>263.66207538828661</v>
       </c>
       <c r="AC18">
-        <v>218.0755684264671</v>
+        <v>133.82299263943051</v>
       </c>
       <c r="AD18">
-        <v>191.00651545207299</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="AE18">
-        <v>399.39223543329871</v>
+        <v>203.54624800442821</v>
       </c>
       <c r="AF18">
-        <v>270.73764185630313</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="AG18">
-        <v>122.3638852946146</v>
+        <v>112.2458406472139</v>
       </c>
       <c r="AH18">
-        <v>66.556604606616546</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="AI18">
-        <v>367.90002629035922</v>
+        <v>293.99535247559879</v>
       </c>
       <c r="AJ18">
-        <v>5.6092366200626467</v>
+        <v>6.2779338804389804</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>165.7685383979148</v>
+        <v>215.1152677616067</v>
       </c>
       <c r="C19">
-        <v>404.50413447791942</v>
+        <v>506.37347394879288</v>
       </c>
       <c r="D19">
-        <v>248.90380514951411</v>
+        <v>342.10203461542028</v>
       </c>
       <c r="E19">
-        <v>141.28425474020241</v>
+        <v>215.07527051520901</v>
       </c>
       <c r="F19">
-        <v>199.79395929571649</v>
+        <v>167.02790109339631</v>
       </c>
       <c r="G19">
-        <v>187.62135599764139</v>
+        <v>216.4350158329045</v>
       </c>
       <c r="H19">
-        <v>127.6437307776575</v>
+        <v>230.25819308606739</v>
       </c>
       <c r="I19">
-        <v>238.3637960786499</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="J19">
-        <v>173.1597749477655</v>
+        <v>144.63945202686401</v>
       </c>
       <c r="K19">
-        <v>382.65433855922231</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="L19">
-        <v>61.502970093786168</v>
+        <v>104.8202810008821</v>
       </c>
       <c r="M19">
-        <v>161.74073601764641</v>
+        <v>193.38890278254831</v>
       </c>
       <c r="N19">
-        <v>140.5335929464041</v>
+        <v>114.5872165869351</v>
       </c>
       <c r="O19">
-        <v>237.6422526106081</v>
+        <v>290.798772494236</v>
       </c>
       <c r="P19">
-        <v>239.5144709788452</v>
+        <v>429.37894065076449</v>
       </c>
       <c r="Q19">
-        <v>375.2416364702961</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="R19">
-        <v>295.93421881220462</v>
+        <v>341.09453450445488</v>
       </c>
       <c r="S19">
+        <v>1783.336944171398</v>
+      </c>
+      <c r="T19">
         <v>550.79191919530172</v>
       </c>
-      <c r="T19">
-        <v>969.61592179225852</v>
-      </c>
       <c r="U19">
-        <v>85.398734410171826</v>
+        <v>126.7550767456796</v>
       </c>
       <c r="V19">
-        <v>361.24143922808003</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="W19">
-        <v>162.13349425146461</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="X19">
-        <v>67.261857081319206</v>
+        <v>148.1902888848775</v>
       </c>
       <c r="Y19">
-        <v>433.55858268746113</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="Z19">
-        <v>105.8452776161771</v>
+        <v>195.2951539492108</v>
       </c>
       <c r="AA19">
-        <v>12.362771975126639</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="AB19">
-        <v>248.2669691986157</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="AC19">
-        <v>236.3381060610312</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="AD19">
-        <v>188.48650571104719</v>
+        <v>191.00651545207299</v>
       </c>
       <c r="AE19">
-        <v>248.22324024451481</v>
+        <v>399.39223543329871</v>
       </c>
       <c r="AF19">
-        <v>231.25000817449251</v>
+        <v>270.73764185630313</v>
       </c>
       <c r="AG19">
-        <v>145.60098746437981</v>
+        <v>122.3638852946146</v>
       </c>
       <c r="AH19">
-        <v>38.467916507858817</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="AI19">
-        <v>294.62416971213162</v>
+        <v>367.90002629035922</v>
       </c>
       <c r="AJ19">
-        <v>2.8853417908161019</v>
+        <v>5.6092366200626467</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85.84730480690186</v>
+        <v>165.7685383979148</v>
       </c>
       <c r="C20">
-        <v>55.358840210033243</v>
+        <v>404.50413447791942</v>
       </c>
       <c r="D20">
-        <v>133.17960268602761</v>
+        <v>248.90380514951411</v>
       </c>
       <c r="E20">
-        <v>112.7187550265667</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="F20">
-        <v>80.015176229995902</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="G20">
-        <v>69.785371377166143</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="H20">
-        <v>95.631152378042515</v>
+        <v>127.6437307776575</v>
       </c>
       <c r="I20">
-        <v>101.09869063829851</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="J20">
-        <v>85.209278775506945</v>
+        <v>173.1597749477655</v>
       </c>
       <c r="K20">
-        <v>167.53980080791089</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="L20">
-        <v>128.57685413453819</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="M20">
-        <v>71.215619934374232</v>
+        <v>161.74073601764641</v>
       </c>
       <c r="N20">
-        <v>62.512086287662463</v>
+        <v>140.5335929464041</v>
       </c>
       <c r="O20">
-        <v>89.89307816297439</v>
+        <v>237.6422526106081</v>
       </c>
       <c r="P20">
-        <v>92.04110921170934</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="Q20">
-        <v>19.947362356354741</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="R20">
-        <v>57.247904196337423</v>
+        <v>295.93421881220462</v>
       </c>
       <c r="S20">
-        <v>126.7550767456796</v>
+        <v>550.79191919530172</v>
       </c>
       <c r="T20">
+        <v>969.61592179225852</v>
+      </c>
+      <c r="U20">
         <v>85.398734410171826</v>
       </c>
-      <c r="U20">
-        <v>342.83574308192988</v>
-      </c>
       <c r="V20">
-        <v>78.194670118302625</v>
+        <v>361.24143922808003</v>
       </c>
       <c r="W20">
-        <v>98.855396875204917</v>
+        <v>162.13349425146461</v>
       </c>
       <c r="X20">
-        <v>145.92444837489421</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="Y20">
-        <v>91.265423044492252</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="Z20">
-        <v>128.93300316240021</v>
+        <v>105.8452776161771</v>
       </c>
       <c r="AA20">
-        <v>116.0812018699327</v>
+        <v>12.362771975126639</v>
       </c>
       <c r="AB20">
-        <v>115.1892279857713</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="AC20">
-        <v>57.656572750020857</v>
+        <v>236.3381060610312</v>
       </c>
       <c r="AD20">
-        <v>96.472069016605019</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="AE20">
-        <v>60.919383187046833</v>
+        <v>248.22324024451481</v>
       </c>
       <c r="AF20">
-        <v>21.78707832046269</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="AG20">
-        <v>78.057037873540764</v>
+        <v>145.60098746437981</v>
       </c>
       <c r="AH20">
-        <v>87.169651057370842</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="AI20">
-        <v>118.0056779356001</v>
+        <v>294.62416971213162</v>
       </c>
       <c r="AJ20">
-        <v>6.1385302978581811</v>
+        <v>2.8853417908161019</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>157.12167283294951</v>
+        <v>85.84730480690186</v>
       </c>
       <c r="C21">
-        <v>386.03568116512042</v>
+        <v>55.358840210033243</v>
       </c>
       <c r="D21">
-        <v>357.25892961301997</v>
+        <v>133.17960268602761</v>
       </c>
       <c r="E21">
-        <v>264.22172188476247</v>
+        <v>112.7187550265667</v>
       </c>
       <c r="F21">
-        <v>153.1198314716905</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="G21">
-        <v>374.47763327643872</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="H21">
-        <v>197.90921028774491</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="I21">
-        <v>280.94754563979768</v>
+        <v>101.09869063829851</v>
       </c>
       <c r="J21">
-        <v>150.8493055172637</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="K21">
-        <v>572.0380229936676</v>
+        <v>167.53980080791089</v>
       </c>
       <c r="L21">
-        <v>200.74189320986179</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="M21">
-        <v>194.54109988576079</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="N21">
-        <v>99.389567888432452</v>
+        <v>62.512086287662463</v>
       </c>
       <c r="O21">
-        <v>217.07156143559041</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="P21">
-        <v>392.28232371086062</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="Q21">
-        <v>253.47970241250789</v>
+        <v>19.947362356354741</v>
       </c>
       <c r="R21">
-        <v>338.66684620604821</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="S21">
-        <v>458.90299983472732</v>
+        <v>126.7550767456796</v>
       </c>
       <c r="T21">
-        <v>361.24143922808003</v>
+        <v>85.398734410171826</v>
       </c>
       <c r="U21">
+        <v>342.83574308192988</v>
+      </c>
+      <c r="V21">
         <v>78.194670118302625</v>
       </c>
-      <c r="V21">
-        <v>1059.748909504415</v>
-      </c>
       <c r="W21">
-        <v>242.30025675577821</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="X21">
-        <v>150.90579374966049</v>
+        <v>145.92444837489421</v>
       </c>
       <c r="Y21">
-        <v>315.85552088591658</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="Z21">
-        <v>178.26517289086439</v>
+        <v>128.93300316240021</v>
       </c>
       <c r="AA21">
-        <v>132.6165585159695</v>
+        <v>116.0812018699327</v>
       </c>
       <c r="AB21">
-        <v>297.50079837228162</v>
+        <v>115.1892279857713</v>
       </c>
       <c r="AC21">
-        <v>181.63100538466779</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="AD21">
-        <v>250.7894396986915</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="AE21">
-        <v>309.50975548335617</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="AF21">
-        <v>223.49066459331061</v>
+        <v>21.78707832046269</v>
       </c>
       <c r="AG21">
-        <v>120.3938476495691</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="AH21">
-        <v>99.387070311455034</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="AI21">
-        <v>420.8796707612691</v>
+        <v>118.0056779356001</v>
       </c>
       <c r="AJ21">
-        <v>5.7693234801404731</v>
+        <v>6.1385302978581811</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>113.28014369578359</v>
+        <v>157.12167283294951</v>
       </c>
       <c r="C22">
-        <v>241.1523086502246</v>
+        <v>386.03568116512042</v>
       </c>
       <c r="D22">
-        <v>224.9970259841119</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="E22">
-        <v>186.96620920043361</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="F22">
-        <v>174.60862003666779</v>
+        <v>153.1198314716905</v>
       </c>
       <c r="G22">
-        <v>124.0298596444291</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="H22">
-        <v>163.0985006254939</v>
+        <v>197.90921028774491</v>
       </c>
       <c r="I22">
-        <v>207.55670991793721</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="J22">
-        <v>165.56283797010579</v>
+        <v>150.8493055172637</v>
       </c>
       <c r="K22">
-        <v>235.0059811950203</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="L22">
-        <v>147.86773917655279</v>
+        <v>200.74189320986179</v>
       </c>
       <c r="M22">
-        <v>136.1683409981533</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="N22">
-        <v>106.0325810948078</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="O22">
-        <v>135.3369703006687</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="P22">
-        <v>191.24409203313041</v>
+        <v>392.28232371086062</v>
       </c>
       <c r="Q22">
-        <v>125.0392993691927</v>
+        <v>253.47970241250789</v>
       </c>
       <c r="R22">
-        <v>229.17211813202661</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="S22">
-        <v>211.99582921518669</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="T22">
-        <v>162.13349425146461</v>
+        <v>361.24143922808003</v>
       </c>
       <c r="U22">
-        <v>98.855396875204917</v>
+        <v>78.194670118302625</v>
       </c>
       <c r="V22">
+        <v>1059.748909504415</v>
+      </c>
+      <c r="W22">
         <v>242.30025675577821</v>
       </c>
-      <c r="W22">
-        <v>571.63494150457609</v>
-      </c>
       <c r="X22">
-        <v>157.86722921178691</v>
+        <v>150.90579374966049</v>
       </c>
       <c r="Y22">
-        <v>150.20428679956021</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="Z22">
-        <v>142.52126810753259</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="AA22">
-        <v>99.650467666795208</v>
+        <v>132.6165585159695</v>
       </c>
       <c r="AB22">
-        <v>211.26784329028061</v>
+        <v>297.50079837228162</v>
       </c>
       <c r="AC22">
-        <v>156.35117624772391</v>
+        <v>181.63100538466779</v>
       </c>
       <c r="AD22">
-        <v>163.1500122263237</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="AE22">
-        <v>192.38393611383751</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="AF22">
-        <v>140.3840896846522</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="AG22">
-        <v>136.98272441857841</v>
+        <v>120.3938476495691</v>
       </c>
       <c r="AH22">
-        <v>103.2442314933857</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="AI22">
-        <v>252.93470682843079</v>
+        <v>420.8796707612691</v>
       </c>
       <c r="AJ22">
-        <v>3.709908890416314</v>
+        <v>5.7693234801404731</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>79.300422827573186</v>
+        <v>113.28014369578359</v>
       </c>
       <c r="C23">
-        <v>97.810906395725738</v>
+        <v>241.1523086502246</v>
       </c>
       <c r="D23">
-        <v>159.55153368583831</v>
+        <v>224.9970259841119</v>
       </c>
       <c r="E23">
-        <v>211.15085757148941</v>
+        <v>186.96620920043361</v>
       </c>
       <c r="F23">
-        <v>183.1313549392394</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="G23">
-        <v>105.1590931470393</v>
+        <v>124.0298596444291</v>
       </c>
       <c r="H23">
-        <v>167.16529252466461</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="I23">
-        <v>125.25502946381989</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="J23">
-        <v>80.640600918740205</v>
+        <v>165.56283797010579</v>
       </c>
       <c r="K23">
-        <v>191.4845023698746</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="L23">
-        <v>158.65563973998479</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="M23">
-        <v>106.828537318736</v>
+        <v>136.1683409981533</v>
       </c>
       <c r="N23">
-        <v>85.223776598623346</v>
+        <v>106.0325810948078</v>
       </c>
       <c r="O23">
-        <v>87.116106911327421</v>
+        <v>135.3369703006687</v>
       </c>
       <c r="P23">
-        <v>131.27163202690591</v>
+        <v>191.24409203313041</v>
       </c>
       <c r="Q23">
-        <v>51.316562143824932</v>
+        <v>125.0392993691927</v>
       </c>
       <c r="R23">
-        <v>35.582608421144123</v>
+        <v>229.17211813202661</v>
       </c>
       <c r="S23">
-        <v>148.1902888848775</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="T23">
-        <v>67.261857081319206</v>
+        <v>162.13349425146461</v>
       </c>
       <c r="U23">
-        <v>145.92444837489421</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="V23">
-        <v>150.90579374966049</v>
+        <v>242.30025675577821</v>
       </c>
       <c r="W23">
+        <v>571.63494150457609</v>
+      </c>
+      <c r="X23">
         <v>157.86722921178691</v>
       </c>
-      <c r="X23">
-        <v>628.85708364413858</v>
-      </c>
       <c r="Y23">
-        <v>128.66358697262589</v>
+        <v>150.20428679956021</v>
       </c>
       <c r="Z23">
-        <v>197.85032152408141</v>
+        <v>142.52126810753259</v>
       </c>
       <c r="AA23">
-        <v>125.0650052816528</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="AB23">
-        <v>113.28024160807649</v>
+        <v>211.26784329028061</v>
       </c>
       <c r="AC23">
-        <v>168.8368407196561</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="AD23">
-        <v>105.9077890971049</v>
+        <v>163.1500122263237</v>
       </c>
       <c r="AE23">
-        <v>134.6716826283334</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="AF23">
-        <v>79.429620132721794</v>
+        <v>140.3840896846522</v>
       </c>
       <c r="AG23">
-        <v>76.051210161973273</v>
+        <v>136.98272441857841</v>
       </c>
       <c r="AH23">
-        <v>93.654517048227547</v>
+        <v>103.2442314933857</v>
       </c>
       <c r="AI23">
-        <v>129.29357496982959</v>
+        <v>252.93470682843079</v>
       </c>
       <c r="AJ23">
-        <v>8.3293941116642181</v>
+        <v>3.709908890416314</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>86.975801667560305</v>
+        <v>79.300422827573186</v>
       </c>
       <c r="C24">
-        <v>298.88843316559138</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="D24">
-        <v>214.0498171033363</v>
+        <v>159.55153368583831</v>
       </c>
       <c r="E24">
-        <v>196.66877664256469</v>
+        <v>211.15085757148941</v>
       </c>
       <c r="F24">
-        <v>182.33471908763201</v>
+        <v>183.1313549392394</v>
       </c>
       <c r="G24">
-        <v>138.16263922646189</v>
+        <v>105.1590931470393</v>
       </c>
       <c r="H24">
-        <v>138.12773798857691</v>
+        <v>167.16529252466461</v>
       </c>
       <c r="I24">
-        <v>156.85848823254079</v>
+        <v>125.25502946381989</v>
       </c>
       <c r="J24">
-        <v>135.22580595984829</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="K24">
-        <v>316.97459323691658</v>
+        <v>191.4845023698746</v>
       </c>
       <c r="L24">
-        <v>72.022935281638695</v>
+        <v>158.65563973998479</v>
       </c>
       <c r="M24">
-        <v>147.0199314067371</v>
+        <v>106.828537318736</v>
       </c>
       <c r="N24">
-        <v>103.70071992210779</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="O24">
-        <v>273.46958385683422</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="P24">
-        <v>259.48638099811751</v>
+        <v>131.27163202690591</v>
       </c>
       <c r="Q24">
-        <v>357.56488183561288</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="R24">
-        <v>303.25524381254519</v>
+        <v>35.582608421144123</v>
       </c>
       <c r="S24">
-        <v>553.34048404281725</v>
+        <v>148.1902888848775</v>
       </c>
       <c r="T24">
-        <v>433.55858268746113</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="U24">
-        <v>91.265423044492252</v>
+        <v>145.92444837489421</v>
       </c>
       <c r="V24">
-        <v>315.85552088591658</v>
+        <v>150.90579374966049</v>
       </c>
       <c r="W24">
-        <v>150.20428679956021</v>
+        <v>157.86722921178691</v>
       </c>
       <c r="X24">
+        <v>628.85708364413858</v>
+      </c>
+      <c r="Y24">
         <v>128.66358697262589</v>
       </c>
-      <c r="Y24">
-        <v>1209.8671041590801</v>
-      </c>
       <c r="Z24">
-        <v>144.07219413132469</v>
+        <v>197.85032152408141</v>
       </c>
       <c r="AA24">
-        <v>34.747727628327681</v>
+        <v>125.0650052816528</v>
       </c>
       <c r="AB24">
-        <v>240.7745468236071</v>
+        <v>113.28024160807649</v>
       </c>
       <c r="AC24">
-        <v>242.7625142125664</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="AD24">
-        <v>228.27510444337719</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="AE24">
-        <v>182.00355923930979</v>
+        <v>134.6716826283334</v>
       </c>
       <c r="AF24">
-        <v>319.62423844000278</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="AG24">
-        <v>168.38678621839051</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="AH24">
-        <v>110.63390901506619</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="AI24">
-        <v>250.7684584165147</v>
+        <v>129.29357496982959</v>
       </c>
       <c r="AJ24">
-        <v>9.8989951336105975</v>
+        <v>8.3293941116642181</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>48.096235457124408</v>
+        <v>86.975801667560305</v>
       </c>
       <c r="C25">
-        <v>71.804247203378083</v>
+        <v>298.88843316559138</v>
       </c>
       <c r="D25">
-        <v>119.42477322092429</v>
+        <v>214.0498171033363</v>
       </c>
       <c r="E25">
-        <v>164.18656556805499</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="F25">
-        <v>94.859690341622724</v>
+        <v>182.33471908763201</v>
       </c>
       <c r="G25">
-        <v>108.5314708868294</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="H25">
-        <v>91.403523725559012</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="I25">
-        <v>88.365353761371409</v>
+        <v>156.85848823254079</v>
       </c>
       <c r="J25">
-        <v>108.4505362807795</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="K25">
-        <v>177.12909713551551</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="L25">
-        <v>94.041414506079477</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="M25">
-        <v>41.506220177290963</v>
+        <v>147.0199314067371</v>
       </c>
       <c r="N25">
-        <v>71.567080711629714</v>
+        <v>103.70071992210779</v>
       </c>
       <c r="O25">
-        <v>94.853642301371025</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="P25">
-        <v>146.37163608302399</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Q25">
-        <v>67.849797906623991</v>
+        <v>357.56488183561288</v>
       </c>
       <c r="R25">
-        <v>97.486373264302628</v>
+        <v>303.25524381254519</v>
       </c>
       <c r="S25">
-        <v>195.2951539492108</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="T25">
-        <v>105.8452776161771</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="U25">
-        <v>128.93300316240021</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="V25">
-        <v>178.26517289086439</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="W25">
-        <v>142.52126810753259</v>
+        <v>150.20428679956021</v>
       </c>
       <c r="X25">
-        <v>197.85032152408141</v>
+        <v>128.66358697262589</v>
       </c>
       <c r="Y25">
+        <v>1209.8671041590801</v>
+      </c>
+      <c r="Z25">
         <v>144.07219413132469</v>
       </c>
-      <c r="Z25">
-        <v>439.74285066287052</v>
-      </c>
       <c r="AA25">
-        <v>79.899335385329579</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="AB25">
-        <v>124.76513414881791</v>
+        <v>240.7745468236071</v>
       </c>
       <c r="AC25">
-        <v>95.078004021845118</v>
+        <v>242.7625142125664</v>
       </c>
       <c r="AD25">
-        <v>93.831760047313423</v>
+        <v>228.27510444337719</v>
       </c>
       <c r="AE25">
-        <v>119.8461721789226</v>
+        <v>182.00355923930979</v>
       </c>
       <c r="AF25">
-        <v>71.54653420105106</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="AG25">
-        <v>68.936820690796665</v>
+        <v>168.38678621839051</v>
       </c>
       <c r="AH25">
-        <v>128.45837094580421</v>
+        <v>110.63390901506619</v>
       </c>
       <c r="AI25">
-        <v>133.44441347085541</v>
+        <v>250.7684584165147</v>
       </c>
       <c r="AJ25">
-        <v>8.9926470514127459</v>
+        <v>9.8989951336105975</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>87.351408239904288</v>
+        <v>48.096235457124408</v>
       </c>
       <c r="C26">
-        <v>111.43945478450181</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="D26">
-        <v>129.82225030118099</v>
+        <v>119.42477322092429</v>
       </c>
       <c r="E26">
-        <v>128.10973717340761</v>
+        <v>164.18656556805499</v>
       </c>
       <c r="F26">
-        <v>53.675001320300026</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="G26">
-        <v>74.741122158063831</v>
+        <v>108.5314708868294</v>
       </c>
       <c r="H26">
-        <v>109.5170697172487</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="I26">
-        <v>80.08950551702371</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="J26">
-        <v>26.369500186548059</v>
+        <v>108.4505362807795</v>
       </c>
       <c r="K26">
-        <v>122.9609355375586</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="L26">
-        <v>165.8252926250091</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="M26">
-        <v>75.401018589211333</v>
+        <v>41.506220177290963</v>
       </c>
       <c r="N26">
-        <v>59.172917352252909</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="O26">
-        <v>65.071783678878262</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="P26">
-        <v>98.06780864946208</v>
+        <v>146.37163608302399</v>
       </c>
       <c r="Q26">
-        <v>53.578182415381313</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="R26">
-        <v>67.437693902691919</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="S26">
-        <v>40.581894946375208</v>
+        <v>195.2951539492108</v>
       </c>
       <c r="T26">
-        <v>12.362771975126639</v>
+        <v>105.8452776161771</v>
       </c>
       <c r="U26">
-        <v>116.0812018699327</v>
+        <v>128.93300316240021</v>
       </c>
       <c r="V26">
-        <v>132.6165585159695</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="W26">
-        <v>99.650467666795208</v>
+        <v>142.52126810753259</v>
       </c>
       <c r="X26">
-        <v>125.0650052816528</v>
+        <v>197.85032152408141</v>
       </c>
       <c r="Y26">
-        <v>34.747727628327681</v>
+        <v>144.07219413132469</v>
       </c>
       <c r="Z26">
+        <v>439.74285066287052</v>
+      </c>
+      <c r="AA26">
         <v>79.899335385329579</v>
       </c>
-      <c r="AA26">
-        <v>479.70348966136959</v>
-      </c>
       <c r="AB26">
-        <v>96.875514448255217</v>
+        <v>124.76513414881791</v>
       </c>
       <c r="AC26">
-        <v>21.059363281792841</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AD26">
-        <v>92.299538476363693</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AE26">
-        <v>27.820001056386669</v>
+        <v>119.8461721789226</v>
       </c>
       <c r="AF26">
-        <v>33.611963226741132</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AG26">
-        <v>42.329788373121453</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AH26">
-        <v>58.406206162105264</v>
+        <v>128.45837094580421</v>
       </c>
       <c r="AI26">
-        <v>136.78487885851129</v>
+        <v>133.44441347085541</v>
       </c>
       <c r="AJ26">
-        <v>0.73503887714953864</v>
+        <v>8.9926470514127459</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>185.57127907696369</v>
+        <v>87.351408239904288</v>
       </c>
       <c r="C27">
-        <v>343.1569415680126</v>
+        <v>111.43945478450181</v>
       </c>
       <c r="D27">
-        <v>285.42221214451922</v>
+        <v>129.82225030118099</v>
       </c>
       <c r="E27">
-        <v>195.6747892664018</v>
+        <v>128.10973717340761</v>
       </c>
       <c r="F27">
-        <v>146.4568512018856</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="G27">
-        <v>205.5297162505849</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="H27">
-        <v>289.78306384273918</v>
+        <v>109.5170697172487</v>
       </c>
       <c r="I27">
-        <v>271.46820872045168</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="J27">
-        <v>178.1678290413758</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="K27">
-        <v>396.35675306308639</v>
+        <v>122.9609355375586</v>
       </c>
       <c r="L27">
-        <v>120.6258300714441</v>
+        <v>165.8252926250091</v>
       </c>
       <c r="M27">
-        <v>186.68811405136699</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="N27">
-        <v>109.6602227359546</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="O27">
-        <v>207.36809374720599</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="P27">
-        <v>272.23324186599967</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="Q27">
-        <v>212.6840408516733</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="R27">
-        <v>263.66207538828661</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="S27">
-        <v>314.74757018371292</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="T27">
-        <v>248.2669691986157</v>
+        <v>12.362771975126639</v>
       </c>
       <c r="U27">
-        <v>115.1892279857713</v>
+        <v>116.0812018699327</v>
       </c>
       <c r="V27">
-        <v>297.50079837228162</v>
+        <v>132.6165585159695</v>
       </c>
       <c r="W27">
-        <v>211.26784329028061</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="X27">
-        <v>113.28024160807649</v>
+        <v>125.0650052816528</v>
       </c>
       <c r="Y27">
-        <v>240.7745468236071</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="Z27">
-        <v>124.76513414881791</v>
+        <v>79.899335385329579</v>
       </c>
       <c r="AA27">
+        <v>479.70348966136959</v>
+      </c>
+      <c r="AB27">
         <v>96.875514448255217</v>
       </c>
-      <c r="AB27">
-        <v>692.31791733224975</v>
-      </c>
       <c r="AC27">
-        <v>146.264170949994</v>
+        <v>21.059363281792841</v>
       </c>
       <c r="AD27">
-        <v>193.65156510459059</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AE27">
-        <v>250.29473275864521</v>
+        <v>27.820001056386669</v>
       </c>
       <c r="AF27">
-        <v>232.0316260620867</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AG27">
-        <v>130.24368656762829</v>
+        <v>42.329788373121453</v>
       </c>
       <c r="AH27">
-        <v>107.0206770422114</v>
+        <v>58.406206162105264</v>
       </c>
       <c r="AI27">
-        <v>274.4660712598382</v>
+        <v>136.78487885851129</v>
       </c>
       <c r="AJ27">
-        <v>1.1511745195493279</v>
+        <v>0.73503887714953864</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>110.45592297489389</v>
+        <v>185.57127907696369</v>
       </c>
       <c r="C28">
-        <v>246.98858003890601</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="D28">
-        <v>152.04070029398511</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="E28">
-        <v>141.8640674074573</v>
+        <v>195.6747892664018</v>
       </c>
       <c r="F28">
-        <v>285.43280900234117</v>
+        <v>146.4568512018856</v>
       </c>
       <c r="G28">
-        <v>101.26209180105241</v>
+        <v>205.5297162505849</v>
       </c>
       <c r="H28">
-        <v>150.40515920172959</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="I28">
-        <v>191.78676933604609</v>
+        <v>271.46820872045168</v>
       </c>
       <c r="J28">
-        <v>98.377737243468786</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="K28">
-        <v>249.19836635872809</v>
+        <v>396.35675306308639</v>
       </c>
       <c r="L28">
-        <v>71.235072299085743</v>
+        <v>120.6258300714441</v>
       </c>
       <c r="M28">
-        <v>117.8840942119075</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="N28">
-        <v>115.8296363762781</v>
+        <v>109.6602227359546</v>
       </c>
       <c r="O28">
-        <v>110.8888340856145</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="P28">
-        <v>125.6635017010591</v>
+        <v>272.23324186599967</v>
       </c>
       <c r="Q28">
-        <v>154.6781795463676</v>
+        <v>212.6840408516733</v>
       </c>
       <c r="R28">
-        <v>133.82299263943051</v>
+        <v>263.66207538828661</v>
       </c>
       <c r="S28">
-        <v>218.0755684264671</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="T28">
-        <v>236.3381060610312</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="U28">
-        <v>57.656572750020857</v>
+        <v>115.1892279857713</v>
       </c>
       <c r="V28">
-        <v>181.63100538466779</v>
+        <v>297.50079837228162</v>
       </c>
       <c r="W28">
-        <v>156.35117624772391</v>
+        <v>211.26784329028061</v>
       </c>
       <c r="X28">
-        <v>168.8368407196561</v>
+        <v>113.28024160807649</v>
       </c>
       <c r="Y28">
-        <v>242.7625142125664</v>
+        <v>240.7745468236071</v>
       </c>
       <c r="Z28">
-        <v>95.078004021845118</v>
+        <v>124.76513414881791</v>
       </c>
       <c r="AA28">
-        <v>21.059363281792841</v>
+        <v>96.875514448255217</v>
       </c>
       <c r="AB28">
+        <v>692.31791733224975</v>
+      </c>
+      <c r="AC28">
         <v>146.264170949994</v>
       </c>
-      <c r="AC28">
-        <v>513.92402465670114</v>
-      </c>
       <c r="AD28">
-        <v>149.02412751931891</v>
+        <v>193.65156510459059</v>
       </c>
       <c r="AE28">
-        <v>144.29299474076271</v>
+        <v>250.29473275864521</v>
       </c>
       <c r="AF28">
-        <v>132.28393833653161</v>
+        <v>232.0316260620867</v>
       </c>
       <c r="AG28">
-        <v>82.313975048175308</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AH28">
-        <v>51.470114974042133</v>
+        <v>107.0206770422114</v>
       </c>
       <c r="AI28">
-        <v>163.42338227209331</v>
+        <v>274.4660712598382</v>
       </c>
       <c r="AJ28">
-        <v>3.2849331040125591</v>
+        <v>1.1511745195493279</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>84.737451806767524</v>
+        <v>110.45592297489389</v>
       </c>
       <c r="C29">
-        <v>205.89914899222649</v>
+        <v>246.98858003890601</v>
       </c>
       <c r="D29">
-        <v>202.5926190415627</v>
+        <v>152.04070029398511</v>
       </c>
       <c r="E29">
-        <v>205.30238835256819</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="F29">
-        <v>127.6126015080085</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="G29">
-        <v>138.0935857979257</v>
+        <v>101.26209180105241</v>
       </c>
       <c r="H29">
-        <v>84.603949108836957</v>
+        <v>150.40515920172959</v>
       </c>
       <c r="I29">
-        <v>169.6005056495419</v>
+        <v>191.78676933604609</v>
       </c>
       <c r="J29">
-        <v>67.293386455081745</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="K29">
-        <v>301.48926285497038</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="L29">
-        <v>102.0943873197506</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="M29">
-        <v>118.9264670823674</v>
+        <v>117.8840942119075</v>
       </c>
       <c r="N29">
-        <v>41.508475309720168</v>
+        <v>115.8296363762781</v>
       </c>
       <c r="O29">
-        <v>167.52545705243409</v>
+        <v>110.8888340856145</v>
       </c>
       <c r="P29">
-        <v>165.16239197600541</v>
+        <v>125.6635017010591</v>
       </c>
       <c r="Q29">
-        <v>95.545536267340097</v>
+        <v>154.6781795463676</v>
       </c>
       <c r="R29">
-        <v>306.05824352191001</v>
+        <v>133.82299263943051</v>
       </c>
       <c r="S29">
-        <v>191.00651545207299</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="T29">
-        <v>188.48650571104719</v>
+        <v>236.3381060610312</v>
       </c>
       <c r="U29">
-        <v>96.472069016605019</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="V29">
-        <v>250.7894396986915</v>
+        <v>181.63100538466779</v>
       </c>
       <c r="W29">
-        <v>163.1500122263237</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="X29">
-        <v>105.9077890971049</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="Y29">
-        <v>228.27510444337719</v>
+        <v>242.7625142125664</v>
       </c>
       <c r="Z29">
-        <v>93.831760047313423</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AA29">
-        <v>92.299538476363693</v>
+        <v>21.059363281792841</v>
       </c>
       <c r="AB29">
-        <v>193.65156510459059</v>
+        <v>146.264170949994</v>
       </c>
       <c r="AC29">
+        <v>513.92402465670114</v>
+      </c>
+      <c r="AD29">
         <v>149.02412751931891</v>
       </c>
-      <c r="AD29">
-        <v>563.80140699400204</v>
-      </c>
       <c r="AE29">
-        <v>113.7934069716987</v>
+        <v>144.29299474076271</v>
       </c>
       <c r="AF29">
-        <v>178.7654731210913</v>
+        <v>132.28393833653161</v>
       </c>
       <c r="AG29">
-        <v>68.679994062457581</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AH29">
-        <v>106.93559914887111</v>
+        <v>51.470114974042133</v>
       </c>
       <c r="AI29">
-        <v>251.9948406059431</v>
+        <v>163.42338227209331</v>
       </c>
       <c r="AJ29">
-        <v>0.14491350649046281</v>
+        <v>3.2849331040125591</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>142.93009779980099</v>
+        <v>84.737451806767524</v>
       </c>
       <c r="C30">
-        <v>285.85212351796002</v>
+        <v>205.89914899222649</v>
       </c>
       <c r="D30">
-        <v>268.09914318451069</v>
+        <v>202.5926190415627</v>
       </c>
       <c r="E30">
-        <v>170.8382740202679</v>
+        <v>205.30238835256819</v>
       </c>
       <c r="F30">
-        <v>105.5091928983724</v>
+        <v>127.6126015080085</v>
       </c>
       <c r="G30">
-        <v>191.84772996684231</v>
+        <v>138.0935857979257</v>
       </c>
       <c r="H30">
-        <v>234.16100471047409</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="I30">
-        <v>200.7469200148355</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="J30">
-        <v>110.64617933239821</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="K30">
-        <v>323.53972515804298</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="L30">
-        <v>131.72799395978629</v>
+        <v>102.0943873197506</v>
       </c>
       <c r="M30">
-        <v>144.0909217684362</v>
+        <v>118.9264670823674</v>
       </c>
       <c r="N30">
-        <v>87.907641664722789</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="O30">
-        <v>149.9402958236455</v>
+        <v>167.52545705243409</v>
       </c>
       <c r="P30">
-        <v>308.33902222680803</v>
+        <v>165.16239197600541</v>
       </c>
       <c r="Q30">
-        <v>256.28578800037292</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="R30">
-        <v>203.54624800442821</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="S30">
-        <v>399.39223543329871</v>
+        <v>191.00651545207299</v>
       </c>
       <c r="T30">
-        <v>248.22324024451481</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="U30">
-        <v>60.919383187046833</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="V30">
-        <v>309.50975548335617</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="W30">
-        <v>192.38393611383751</v>
+        <v>163.1500122263237</v>
       </c>
       <c r="X30">
-        <v>134.6716826283334</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="Y30">
-        <v>182.00355923930979</v>
+        <v>228.27510444337719</v>
       </c>
       <c r="Z30">
-        <v>119.8461721789226</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AA30">
-        <v>27.820001056386669</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AB30">
-        <v>250.29473275864521</v>
+        <v>193.65156510459059</v>
       </c>
       <c r="AC30">
-        <v>144.29299474076271</v>
+        <v>149.02412751931891</v>
       </c>
       <c r="AD30">
+        <v>563.80140699400204</v>
+      </c>
+      <c r="AE30">
         <v>113.7934069716987</v>
       </c>
-      <c r="AE30">
-        <v>688.78980895103746</v>
-      </c>
       <c r="AF30">
-        <v>159.93799081332551</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AG30">
-        <v>62.182885065159702</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AH30">
-        <v>53.056000896795361</v>
+        <v>106.93559914887111</v>
       </c>
       <c r="AI30">
-        <v>213.71352430138111</v>
+        <v>251.9948406059431</v>
       </c>
       <c r="AJ30">
-        <v>-2.2026901035575861</v>
+        <v>0.14491350649046281</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>69.170003234738488</v>
+        <v>142.93009779980099</v>
       </c>
       <c r="C31">
-        <v>258.39916315194557</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="D31">
-        <v>186.0212441841133</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="E31">
-        <v>151.90534258102849</v>
+        <v>170.8382740202679</v>
       </c>
       <c r="F31">
-        <v>108.5210544600543</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="G31">
-        <v>140.15735951127331</v>
+        <v>191.84772996684231</v>
       </c>
       <c r="H31">
-        <v>159.1455811408938</v>
+        <v>234.16100471047409</v>
       </c>
       <c r="I31">
-        <v>145.1282920566436</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="J31">
-        <v>133.48830432935381</v>
+        <v>110.64617933239821</v>
       </c>
       <c r="K31">
-        <v>301.91221359934349</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="L31">
-        <v>48.012541311291379</v>
+        <v>131.72799395978629</v>
       </c>
       <c r="M31">
-        <v>168.39880012754691</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="N31">
-        <v>81.086486769544706</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="O31">
-        <v>209.37039822178861</v>
+        <v>149.9402958236455</v>
       </c>
       <c r="P31">
-        <v>221.2937017173185</v>
+        <v>308.33902222680803</v>
       </c>
       <c r="Q31">
-        <v>235.47108672824291</v>
+        <v>256.28578800037292</v>
       </c>
       <c r="R31">
-        <v>268.4656919372826</v>
+        <v>203.54624800442821</v>
       </c>
       <c r="S31">
-        <v>270.73764185630313</v>
+        <v>399.39223543329871</v>
       </c>
       <c r="T31">
-        <v>231.25000817449251</v>
+        <v>248.22324024451481</v>
       </c>
       <c r="U31">
-        <v>21.78707832046269</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="V31">
-        <v>223.49066459331061</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="W31">
-        <v>140.3840896846522</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="X31">
-        <v>79.429620132721794</v>
+        <v>134.6716826283334</v>
       </c>
       <c r="Y31">
-        <v>319.62423844000278</v>
+        <v>182.00355923930979</v>
       </c>
       <c r="Z31">
-        <v>71.54653420105106</v>
+        <v>119.8461721789226</v>
       </c>
       <c r="AA31">
-        <v>33.611963226741132</v>
+        <v>27.820001056386669</v>
       </c>
       <c r="AB31">
-        <v>232.0316260620867</v>
+        <v>250.29473275864521</v>
       </c>
       <c r="AC31">
-        <v>132.28393833653161</v>
+        <v>144.29299474076271</v>
       </c>
       <c r="AD31">
-        <v>178.7654731210913</v>
+        <v>113.7934069716987</v>
       </c>
       <c r="AE31">
+        <v>688.78980895103746</v>
+      </c>
+      <c r="AF31">
         <v>159.93799081332551</v>
       </c>
-      <c r="AF31">
-        <v>717.56740519724576</v>
-      </c>
       <c r="AG31">
-        <v>139.76253246989779</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AH31">
-        <v>111.250966164684</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AI31">
-        <v>182.1872171299778</v>
+        <v>213.71352430138111</v>
       </c>
       <c r="AJ31">
-        <v>1.88113580137297</v>
+        <v>-2.2026901035575861</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>82.358756277108995</v>
+        <v>69.170003234738488</v>
       </c>
       <c r="C32">
-        <v>202.3113830633981</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="D32">
-        <v>118.98359740768301</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="E32">
-        <v>92.444905272018673</v>
+        <v>151.90534258102849</v>
       </c>
       <c r="F32">
-        <v>104.83719715083581</v>
+        <v>108.5210544600543</v>
       </c>
       <c r="G32">
-        <v>79.377723381716109</v>
+        <v>140.15735951127331</v>
       </c>
       <c r="H32">
-        <v>151.1335907524626</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="I32">
-        <v>180.522480947487</v>
+        <v>145.1282920566436</v>
       </c>
       <c r="J32">
-        <v>211.23140839310469</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="K32">
-        <v>120.9052137266375</v>
+        <v>301.91221359934349</v>
       </c>
       <c r="L32">
-        <v>86.499890084909353</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="M32">
-        <v>121.616893836727</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="N32">
-        <v>151.11324751753361</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="O32">
-        <v>77.44398318164923</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="P32">
-        <v>131.72185730605401</v>
+        <v>221.2937017173185</v>
       </c>
       <c r="Q32">
-        <v>115.1575858118613</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="R32">
-        <v>112.2458406472139</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="S32">
-        <v>122.3638852946146</v>
+        <v>270.73764185630313</v>
       </c>
       <c r="T32">
-        <v>145.60098746437981</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="U32">
-        <v>78.057037873540764</v>
+        <v>21.78707832046269</v>
       </c>
       <c r="V32">
-        <v>120.3938476495691</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="W32">
-        <v>136.98272441857841</v>
+        <v>140.3840896846522</v>
       </c>
       <c r="X32">
-        <v>76.051210161973273</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="Y32">
-        <v>168.38678621839051</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="Z32">
-        <v>68.936820690796665</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AA32">
-        <v>42.329788373121453</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AB32">
-        <v>130.24368656762829</v>
+        <v>232.0316260620867</v>
       </c>
       <c r="AC32">
-        <v>82.313975048175308</v>
+        <v>132.28393833653161</v>
       </c>
       <c r="AD32">
-        <v>68.679994062457581</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AE32">
-        <v>62.182885065159702</v>
+        <v>159.93799081332551</v>
       </c>
       <c r="AF32">
+        <v>717.56740519724576</v>
+      </c>
+      <c r="AG32">
         <v>139.76253246989779</v>
       </c>
-      <c r="AG32">
-        <v>398.88124606400987</v>
-      </c>
       <c r="AH32">
-        <v>60.990726296304288</v>
+        <v>111.250966164684</v>
       </c>
       <c r="AI32">
-        <v>114.8512854824932</v>
+        <v>182.1872171299778</v>
       </c>
       <c r="AJ32">
-        <v>7.4110150579329979</v>
+        <v>1.88113580137297</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>8.1649803695795402</v>
+        <v>82.358756277108995</v>
       </c>
       <c r="C33">
-        <v>13.97525920597864</v>
+        <v>202.3113830633981</v>
       </c>
       <c r="D33">
-        <v>70.11951733352862</v>
+        <v>118.98359740768301</v>
       </c>
       <c r="E33">
-        <v>146.76727709554561</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="F33">
-        <v>64.226422145388767</v>
+        <v>104.83719715083581</v>
       </c>
       <c r="G33">
-        <v>69.708961276440959</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="H33">
-        <v>55.780550667750738</v>
+        <v>151.1335907524626</v>
       </c>
       <c r="I33">
-        <v>35.802153222879888</v>
+        <v>180.522480947487</v>
       </c>
       <c r="J33">
-        <v>72.606150947101668</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="K33">
-        <v>124.9461395613323</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="L33">
-        <v>71.835602510157244</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="M33">
-        <v>31.170007378826821</v>
+        <v>121.616893836727</v>
       </c>
       <c r="N33">
-        <v>39.212363566967007</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="O33">
-        <v>105.72820911861341</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="P33">
-        <v>115.7227847808948</v>
+        <v>131.72185730605401</v>
       </c>
       <c r="Q33">
-        <v>20.015755498576201</v>
+        <v>115.1575858118613</v>
       </c>
       <c r="R33">
-        <v>107.4569121428264</v>
+        <v>112.2458406472139</v>
       </c>
       <c r="S33">
-        <v>66.556604606616546</v>
+        <v>122.3638852946146</v>
       </c>
       <c r="T33">
-        <v>38.467916507858817</v>
+        <v>145.60098746437981</v>
       </c>
       <c r="U33">
-        <v>87.169651057370842</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="V33">
-        <v>99.387070311455034</v>
+        <v>120.3938476495691</v>
       </c>
       <c r="W33">
-        <v>103.2442314933857</v>
+        <v>136.98272441857841</v>
       </c>
       <c r="X33">
-        <v>93.654517048227547</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="Y33">
-        <v>110.63390901506619</v>
+        <v>168.38678621839051</v>
       </c>
       <c r="Z33">
-        <v>128.45837094580421</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AA33">
-        <v>58.406206162105264</v>
+        <v>42.329788373121453</v>
       </c>
       <c r="AB33">
-        <v>107.0206770422114</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AC33">
-        <v>51.470114974042133</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AD33">
-        <v>106.93559914887111</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AE33">
-        <v>53.056000896795361</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AF33">
-        <v>111.250966164684</v>
+        <v>139.76253246989779</v>
       </c>
       <c r="AG33">
+        <v>398.88124606400987</v>
+      </c>
+      <c r="AH33">
         <v>60.990726296304288</v>
       </c>
-      <c r="AH33">
-        <v>332.75118771956011</v>
-      </c>
       <c r="AI33">
-        <v>131.48320525571131</v>
+        <v>114.8512854824932</v>
       </c>
       <c r="AJ33">
-        <v>7.6875299727851418</v>
+        <v>7.4110150579329979</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>152.59305467898619</v>
+        <v>8.1649803695795402</v>
       </c>
       <c r="C34">
-        <v>341.61545538602428</v>
+        <v>13.97525920597864</v>
       </c>
       <c r="D34">
-        <v>313.88674956103398</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="E34">
-        <v>261.09958839741131</v>
+        <v>146.76727709554561</v>
       </c>
       <c r="F34">
-        <v>205.85741985094151</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="G34">
-        <v>205.6479501989312</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="H34">
-        <v>208.8512227834446</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="I34">
-        <v>293.57924943581298</v>
+        <v>35.802153222879888</v>
       </c>
       <c r="J34">
-        <v>148.09795549277291</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="K34">
-        <v>396.98320448909578</v>
+        <v>124.9461395613323</v>
       </c>
       <c r="L34">
-        <v>205.3746790452937</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="M34">
-        <v>190.64121786924881</v>
+        <v>31.170007378826821</v>
       </c>
       <c r="N34">
-        <v>131.2320747092655</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="O34">
-        <v>234.63224645485641</v>
+        <v>105.72820911861341</v>
       </c>
       <c r="P34">
-        <v>261.66767661709122</v>
+        <v>115.7227847808948</v>
       </c>
       <c r="Q34">
-        <v>220.94513750645311</v>
+        <v>20.015755498576201</v>
       </c>
       <c r="R34">
-        <v>293.99535247559879</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="S34">
-        <v>367.90002629035922</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="T34">
-        <v>294.62416971213162</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="U34">
-        <v>118.0056779356001</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="V34">
-        <v>420.8796707612691</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="W34">
-        <v>252.93470682843079</v>
+        <v>103.2442314933857</v>
       </c>
       <c r="X34">
-        <v>129.29357496982959</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="Y34">
-        <v>250.7684584165147</v>
+        <v>110.63390901506619</v>
       </c>
       <c r="Z34">
-        <v>133.44441347085541</v>
+        <v>128.45837094580421</v>
       </c>
       <c r="AA34">
-        <v>136.78487885851129</v>
+        <v>58.406206162105264</v>
       </c>
       <c r="AB34">
-        <v>274.4660712598382</v>
+        <v>107.0206770422114</v>
       </c>
       <c r="AC34">
-        <v>163.42338227209331</v>
+        <v>51.470114974042133</v>
       </c>
       <c r="AD34">
-        <v>251.9948406059431</v>
+        <v>106.93559914887111</v>
       </c>
       <c r="AE34">
-        <v>213.71352430138111</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AF34">
-        <v>182.1872171299778</v>
+        <v>111.250966164684</v>
       </c>
       <c r="AG34">
-        <v>114.8512854824932</v>
+        <v>60.990726296304288</v>
       </c>
       <c r="AH34">
+        <v>332.75118771956011</v>
+      </c>
+      <c r="AI34">
         <v>131.48320525571131</v>
       </c>
-      <c r="AI34">
-        <v>945.42319879401521</v>
-      </c>
       <c r="AJ34">
-        <v>-2.1220361878184448</v>
+        <v>7.6875299727851418</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>152.59305467898619</v>
+      </c>
+      <c r="C35">
+        <v>341.61545538602428</v>
+      </c>
+      <c r="D35">
+        <v>313.88674956103398</v>
+      </c>
+      <c r="E35">
+        <v>261.09958839741131</v>
+      </c>
+      <c r="F35">
+        <v>205.85741985094151</v>
+      </c>
+      <c r="G35">
+        <v>205.6479501989312</v>
+      </c>
+      <c r="H35">
+        <v>208.8512227834446</v>
+      </c>
+      <c r="I35">
+        <v>293.57924943581298</v>
+      </c>
+      <c r="J35">
+        <v>148.09795549277291</v>
+      </c>
+      <c r="K35">
+        <v>396.98320448909578</v>
+      </c>
+      <c r="L35">
+        <v>205.3746790452937</v>
+      </c>
+      <c r="M35">
+        <v>190.64121786924881</v>
+      </c>
+      <c r="N35">
+        <v>131.2320747092655</v>
+      </c>
+      <c r="O35">
+        <v>234.63224645485641</v>
+      </c>
+      <c r="P35">
+        <v>261.66767661709122</v>
+      </c>
+      <c r="Q35">
+        <v>220.94513750645311</v>
+      </c>
+      <c r="R35">
+        <v>293.99535247559879</v>
+      </c>
+      <c r="S35">
+        <v>367.90002629035922</v>
+      </c>
+      <c r="T35">
+        <v>294.62416971213162</v>
+      </c>
+      <c r="U35">
+        <v>118.0056779356001</v>
+      </c>
+      <c r="V35">
+        <v>420.8796707612691</v>
+      </c>
+      <c r="W35">
+        <v>252.93470682843079</v>
+      </c>
+      <c r="X35">
+        <v>129.29357496982959</v>
+      </c>
+      <c r="Y35">
+        <v>250.7684584165147</v>
+      </c>
+      <c r="Z35">
+        <v>133.44441347085541</v>
+      </c>
+      <c r="AA35">
+        <v>136.78487885851129</v>
+      </c>
+      <c r="AB35">
+        <v>274.4660712598382</v>
+      </c>
+      <c r="AC35">
+        <v>163.42338227209331</v>
+      </c>
+      <c r="AD35">
+        <v>251.9948406059431</v>
+      </c>
+      <c r="AE35">
+        <v>213.71352430138111</v>
+      </c>
+      <c r="AF35">
+        <v>182.1872171299778</v>
+      </c>
+      <c r="AG35">
+        <v>114.8512854824932</v>
+      </c>
+      <c r="AH35">
+        <v>131.48320525571131</v>
+      </c>
+      <c r="AI35">
+        <v>945.42319879401521</v>
+      </c>
+      <c r="AJ35">
+        <v>-2.1220361878184448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>2.7626656999069068</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>1.4987422577254841</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>-2.7200732923054818</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>4.2523054508408107</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>5.1033740819395534</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>9.0714988551442541</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>-0.68389570994587867</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>0.46221255354074797</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>6.5994493255562467</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>4.1210709777962196</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>2.0945591127529251</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>0.86120533912917052</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>1.833680366059899</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>0.26742936917059529</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>5.5938319634512306</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <v>2.5260578366523889</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>6.2779338804389804</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <v>5.6092366200626467</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <v>2.8853417908161019</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>6.1385302978581811</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>5.7693234801404731</v>
       </c>
-      <c r="W35">
+      <c r="W36">
         <v>3.709908890416314</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <v>8.3293941116642181</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <v>9.8989951336105975</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <v>8.9926470514127459</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <v>0.73503887714953864</v>
       </c>
-      <c r="AB35">
+      <c r="AB36">
         <v>1.1511745195493279</v>
       </c>
-      <c r="AC35">
+      <c r="AC36">
         <v>3.2849331040125591</v>
       </c>
-      <c r="AD35">
+      <c r="AD36">
         <v>0.14491350649046281</v>
       </c>
-      <c r="AE35">
+      <c r="AE36">
         <v>-2.2026901035575861</v>
       </c>
-      <c r="AF35">
+      <c r="AF36">
         <v>1.88113580137297</v>
       </c>
-      <c r="AG35">
+      <c r="AG36">
         <v>7.4110150579329979</v>
       </c>
-      <c r="AH35">
+      <c r="AH36">
         <v>7.6875299727851418</v>
       </c>
-      <c r="AI35">
+      <c r="AI36">
         <v>-2.1220361878184448</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ36">
         <v>8.6058986609208468</v>
       </c>
     </row>
